--- a/shop_emotion/신제품보만 BF1126C_positive.xlsx
+++ b/shop_emotion/신제품보만 BF1126C_positive.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C67"/>
+  <dimension ref="A1:C122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,11 +451,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>['세밀한 바람의 세기 조절, 리모컨을 사용한 간편한 컨트롤, 다양한 상황에서 사용할 수 있는 편의성과 효율적인 사용이 가능하여 만족스럽습니다.무선으로 자유롭게 움직이며 사용할 수 있\n세밀한 바람의 세기 조절, 리모컨을 사용한 간편한 컨트롤, 다양한 상황에서 사용할 수 있는 편의성과 효율적인 사용이 가능하여 만족스럽습니다.\n\n무선으로 자유롭게 움직이며 사용할 수 있고 피크닉, 캠핑용으로 사용할 수 있는 점이 마음에 듭니다. 집이 공간이 작은 편인데 사용하지 않을 때는 접어서 보관을 할 수 있어 여름이 지난 후에 정리를 할 때도 좋을 것 같아요.\n\n공간이 작아서 두개를 사용할 필요는 없는데 사용하기 편한 크기와 각도로 설정하여 이동하기도 편하고...충전을 하고 벽걸이 또는 테이블 용으로 사용할 수 있어 너무 잘 활용하고 있어요.\n\n스탠드형이 아닌 접이식이라 내구성도 꼼꼼하게 살펴봤는데 역시 보만의 만듬새는 우수하더군요.\n\n\n일반적인 형태의 제품보다 확실하게 편의성이 뛰어나고 활용도가 높다는걸 참고하시면 될 것 같아요.']</t>
+          <t>['무선의 최대장점 어디에서든 사용가능해서 구매했어요야외활동할때 유용할것같고 무선선풍기는 회전 안되는것도 많은데 회전도 되서 아주 맘에 들어요사이즈는 너무 크지도 작지도않게 적당하고\n무선의 최대장점 어디에서든 사용가능해서 구매했어요\n야외활동할때 유용할것같고 무선선풍기는 회전 안되는것도 많은데 회전도 되서 아주 맘에 들어요\n사이즈는 너무 크지도 작지도않게 적당하고 무게감이 살짝있지만 차에 싣고다니면 문제없을정도 입니다\n사실 몇시간씩 들고 이동할거 아니면 무게감은 상관없을듯요\n선풍기 목 길이를 짧게하면 귀여운데 길게하면 나름 포스 뿜뿜! 목 길게하면 쇼파에앉아 사용할수있을정도로 목이 늘어나요 심지어 머리도 각도조절되니 어느 위치에서든 원하는 위치로 바람이 슝슝~~\n무선에 리모콘까지~ 귀차니즘들에게 딱인제품이예요\n그리고 일반 선풍기 돌아가는 소리정도 납니다\n또한 충전중에도 작동이되서 콘센트가 있는곳이면 코드 꽂아\n무선치고 힘도좋아 시원하네요\n단계조절이 1단부터 8단까지니 취향껏 단계조절 하시며 쓰시면 좋을듯합니다\n기본 전원누르면 2단계가 세팅되는데 집안에선 2단계도 시원한느낌이예요\n에어컨과함께 사용시 1단계도 충분하네요\n한번충전에(풀 4시간충전) 6시간사용이니 전\n사실 야구장갈때 쓰려고 산거라 야구관람하며 사용하기엔 충분한 시간인듯해서 이번주 금요일 이 아이와함께 야구장 출동합니다ㅋ\n덕분에 시원한 관람될것같네요']</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>68.79627704620361</v>
+        <v>92.79813170433044</v>
       </c>
     </row>
     <row r="3">
@@ -464,11 +464,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['일반선풍기 찾아보다가 발견하고 구매했어요.작고 소음도 없는 편이라고 해서요.음..근데 생각보다 소음이 좀 있네요.ㅠ.ㅠ이건 개인차가 있지만 1로 해도 저에게는 좀 거슬리네요.저는\n일반선풍기 찾아보다가 발견하고 구매했어요.\n작고 소음도 없는 편이라고 해서요.\n음..근데 생각보다 소음이 좀 있네요.ㅠ.ㅠ\n이건 개인차가 있지만 1로 해도 저에게는 좀 거슬리네요.\n저는 캠핑용이라 아니라 제 방에서 사용할꺼라..\n세기를 1정도하면 초미풍처럼 아주 조용할 줄 알았거든요.\n아무튼 부피는 작아도 겁나 바람이 센데다\n바람세기 정도가 10까지 있어요.\n그리고 회전하니 진짜 몸통까지 다 돌아가네요.\n후기보고 어떤 느낌인가했는데, 이런거군요.ㅎㅎㅎ\n디자인은 참 이쁘고 세련됐어요.\n보관도 컴팩트하게 할 수 있어서 좋기도하구요.\n안방 선풍기와 비교했더니 미니하고 귀엽기도 하구요.\n남동생이 캠핑 자주 다니는데 벌써 탐내하네요.ㅎㅎㅎ\n뭐, 개인적으로 좀 실망하긴했지만,\n작은 선풍기치고는 내구성도 괜찮은 것 같고\n전반적으로 좋은 부분이 많아서 만족하는 구매에요.\n사은품으로 주신 미니선풍기도 감사해요.\n얘도 작은게 바람세기가 겁나 세네요.\n오래오래 잘 사용해볼께요^^']</t>
+          <t>['세밀한 바람의 세기 조절, 리모컨을 사용한 간편한 컨트롤, 다양한 상황에서 사용할 수 있는 편의성과 효율적인 사용이 가능하여 만족스럽습니다.무선으로 자유롭게 움직이며 사용할 수 있\n세밀한 바람의 세기 조절, 리모컨을 사용한 간편한 컨트롤, 다양한 상황에서 사용할 수 있는 편의성과 효율적인 사용이 가능하여 만족스럽습니다.\n\n무선으로 자유롭게 움직이며 사용할 수 있고 피크닉, 캠핑용으로 사용할 수 있는 점이 마음에 듭니다. 집이 공간이 작은 편인데 사용하지 않을 때는 접어서 보관을 할 수 있어 여름이 지난 후에 정리를 할 때도 좋을 것 같아요.\n\n공간이 작아서 두개를 사용할 필요는 없는데 사용하기 편한 크기와 각도로 설정하여 이동하기도 편하고...충전을 하고 있어요.\n\n스탠드형이 아닌 접이식이라 내구성도 꼼꼼하게 살펴봤는데 역시 보만의 만듬새는 우수하더군요.\n\n\n일반적인 형태의 제품보다 확실하게 걸 참고하시면 될 것 같아요.']</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>96.5890109539032</v>
+        <v>89.1167938709259</v>
       </c>
     </row>
     <row r="4">
@@ -477,11 +477,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>['제 서재에 에어컨 설치도 안되고, 선풍기를 가져다놓자니 공간차지 때문에 가뜩이나 복잡한 방이 더 복잡해지더라구요.보관과 휴대가 간편하면서 가볍고, 무선인 선풍기를 찾았는데 완전 딱\n제 서재에 에어컨 설치도 안되고, 선풍기를 가져다놓자니 공간차지 때문에 가뜩이나 복잡한 방이 더 복잡해지더라구요.\n보관과 휴대가 간편하면서 가볍고, 무선인 선풍기를 찾았는데 완전 딱 맘에 드는 제품이에요.\n\n완전히 접혀져서 전용 파우치에 담아두면 쓰지 않을때나 캠핑 갈때 찰떡이구요, 높이 조절에 회전까지 되고..\n리모컨 있고.. 바람 세기 조절까지 쓰기가 너무 편해요!\n무엇보다 무선이라서 이 방 저 방 필요할때마다 가볍게 옮겨다닐 수 있어서 완전 대대대 만족이에요!']</t>
+          <t>['제 서재에 에어컨 설치도 안되고, 선풍기를 가져다놓자니 공간차지 때문에 가뜩이나 복잡한 방이 더 복잡해지더라구요.보관과 휴대가 간편하면서 가볍고, 무선인 선풍기를 찾았는데 완전 딱\n제 서재에 에어컨 설치도 안되고, 선풍기를 가져다놓자니 공간차지 때문에 가뜩이나 복잡한 방이 더 복잡해지더라구요.\n보관과 휴대가 간편하면서 가볍고, 무선인 선풍기를 찾았는데 완전 딱 맘에 드는 제품이에요.\n\n완전히 접혀져서 전용 파우치에 담아두면 쓰지 않을때나 캠핑 갈때 찰떡이구요, 높이 조절에 회전까지 되고..\n리모컨 있고.. 바람 세기 조절까지 쓰기가 너무 편해요!\n무엇보다 무선이라서 !']</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>92.56860017776489</v>
+        <v>99.92257952690125</v>
       </c>
     </row>
     <row r="5">
@@ -494,7 +494,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>96.58877849578857</v>
+        <v>99.97953772544861</v>
       </c>
     </row>
     <row r="6">
@@ -503,11 +503,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['세상에!착착 접히는 선풍기는 처음 봤어요!군더더기 없는 심플한 디자인부터 맘에 쏙 들었는데요폴딩도 간편하고 각도 조절도 안정적이고무선 선풍기라 일반 유선 선풍기 보다모터가 약할 거\n세상에!\n착착 접히는 선풍기는 처음 봤어요!\n군더더기 없는 심플한 디자인부터 맘에 쏙 들었는데요\n폴딩도 간편하고 각</t>
+          <t>['세상에!착착 접히는 선풍기는 처음 봤어요!군더더기 없는 심플한 디자인부터 맘에 쏙 들었는데요폴딩도 간편하고 각도 조절도 안정적이고무선 선풍기라 일반 유선 선풍기 보다모터가 약할 거\n세상에!\n착착 접히는 선풍기는 처음 봤어요!\n군더더기 없는 심플한 디자인부터 맘에 쏙 들었는데요\n폴딩도 간편하고 각도 조절도 안정적이고\n무선 선풍기라 일반 유선 선풍기 보다\n모터가 약할 거라 생각했는데 전혀 약하지 않아서 놀랐어요\n!\n폴딩 후 파우치에 딱 넣어서 보관하면 되니\n\n다음주 아이와 캠핑 가기로 약속했는데 슥 들고 가려고요^^\n참! 사은품으로 보내주신 핸디 선풍기도 진짜 대박이었어요']</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>96.58902287483215</v>
+        <v>99.92706179618835</v>
       </c>
     </row>
     <row r="7">
@@ -516,11 +516,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['이건 사셔야합니다. 일단 가벼워서 옮기기편하고 무선이 환상입니다! 밤새 충전해놓으면 다음날 이리저리 옮기며 베란다 주방 현관..무선으로 한참사용하고! 신세계여요접어서 보관하면 부피\n이건 사셔야합니다.\n일단 가벼워서 옮기기편하고 무선이 환상입니다!\n밤새 충전해놓으면 다음날 이리저리 옮기며 베란다 주방 현관..무선으로 한참사용하고! 신세계여요\n접어서 보관하면 부피도줄고 파우치도있고, 1~8단까지인데 강풍은 아니지만 세세하게 나뉘어있고 저는 2단이 좋더라구요. 옛날 무거운선풍기 쓰시는 어머니께도 주문해드렸습니다.\n저희집도 요거로 다 바꿀예정이어요']</t>
+          <t>['받아보고 시운전해봤는데 캠핑용으로 구매하다보니 중점적으로 본것이 접이식 부피와 휴대성이었습니다생각보다 선풍기 회전날 크기가 작어서 덜시원할까 걱정했는데 생각보다 훨씬 시원한바람에\n받아보고 시운전해봤는데 캠핑용으로 구매하다보니 중점적으로 본것이 접이식 부피와 휴대성이었습니다\n생각보다 선풍기 회전날 크기가 작어서 덜시원할까 걱정했는데 생각보다 훨씬 시원한바람에 놀랐네요\n역시 써큘레이터와는 바람의 질이 틀리네요\n\n단하나 아쉬운것은 휴대용가방이 규격이 딱이라 리모컨과 충전잭을 함께넣으니 지퍼닫기가 힘들고 튀어나오네요\n이것도 원래넣는방식이 있는데 제가 모르고 막넣어서 그런진 모르겠습니다만 조금 아쉬웠습니다']</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>96.58743143081665</v>
+        <v>96.93773984909058</v>
       </c>
     </row>
     <row r="8">
@@ -529,11 +529,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>['캠핑장에서도 집에서도 정말 유용한 제품입니다. 무선선풍기는 처음 써봤는데 이제 유선은 못쓸 것 같아요.집에서도 설거지할 때 아이 공부할 때 티비볼 때 등 이리 저리 옮겨다니기 편해\n캠핑장에서도 집에서도 정말 유용한 제품입니다.\n무선선풍기는 처음 써봤는데 이제 유선은 못쓸 것 같아요.\n집에서도 설거지할 때 아이 공부할 때 티비볼 때 등 이리 저리 옮겨다니기 편해요.\n소음이 거의 느껴지지 않을만큼 조용한데 바람은 강력해서 이거 사고 원래 집에있던 유선선풍기는 아예 쓰질 않네요;;\n멀티탭 연결해서 길게 선풍기 선이 나와있는거 정말 보기 싫었는데 마음의 평안을 찾았어요\n무조건 강추에요!']</t>
+          <t>['선풍기 사계절 내내 잘 사용하는 편인데요. 사용하지 않을 때는 컴팩트하게 보관할 수 있으면서 캠핑갈 때도 사용할 수 있는 선풍기 찾다가 보만 무선선풍기를 장만했어요~ 접이식이라서\n선풍기 사계절 내내 잘 사용하는 편인데요. 사용하지 않을 때는 컴팩트하게 보관할 수 있으면서 캠핑갈 때도 사용할 수 있는 선</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>96.58213257789612</v>
+        <v>99.8570442199707</v>
       </c>
     </row>
     <row r="9">
@@ -542,11 +542,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['더위를 많이 타는 가족이라 사계절 내내 선풍기를 꺼내놓고 사용하는데요.집에 있는 선풍기가 오래된거라 소음이 신경쓰여 보만 무선선풍기를 주문했어요. 보만 제품의 만족도가 큰데 이번에\n더위를 많이 타는 가족이라 사계절 내내 선풍기를 꺼내놓고 사용하는데요.\n집에 있는 선풍기가 오래된거라 소음이 신경쓰여 보만 무선선풍기를 주문했어요.\n보만 제품의 만족도가 큰데 이번에 구입한 선풍기도 너무 이쁘고, 가볍고!\n소음이 적은데다 착착 접이는 무선선풍기라 활용도가 엄청 좋네요~\n조용한데 아주 시원해요.\n다음주에 캠핑 갈 계획이라 보관 가방에 넣어 캠핑장에 가지고 가려구요.']</t>
+          <t>['이건 사셔야합니다. 일단 가벼워서 옮기기편하고 무선이 환상입니다! 밤새 충전해놓으면 다음날 이리저리 옮기며 베란다 주방 현관..무선으로 한참사용하고! 신세계여요접어서 보관하면 부피\n이건 사셔야합니다.\n일단 가벼워서 옮기기편하고 무선이 환상입니다!\n밤새 충전해놓으면 다음날 이리저리 옮기며 베란다 주방 현관..무선으로 한참사용하고! 신세계여요\n접어서 보관하면 부피도줄고 파우치도있고, 1~8단까지인데 강풍은 아니지만 세세하게 나뉘어있고 저는 2단이 좋더라구요. 옛날 무거운선풍기 쓰시는 어머니께도 주문해드렸습니다.\n저희집도 요거로 다 바꿀예정이어요']</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>96.58889174461365</v>
+        <v>79.18835282325745</v>
       </c>
     </row>
     <row r="10">
@@ -555,11 +555,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>['저희집 사용중인데 가볍고 무선이라, 오십견때문에 고생하시는 시어머니도 주문해드렸습니다.집에있는 옛날선풍기 다 버리고 이걸로 다 바꾸고싶다하시네요.주방아일랜드위에 올려놓으시고 잘 사\n저희집 사용중인데 가볍고 무선이라, 오십견때문에 고생하시는 시어머니도 주문해드렸습니다.\n집에있는 옛날선풍기 다 버리고 이걸로 다 바꾸고싶다하시네요.\n주방아일랜드위에 올려놓으시고 잘 사용하고 계십니다.\n가벼워서 좋고 충전도편하고 어디든 들고다닐수있고 보관용이하고.. 세상좋은 보만이어요']</t>
+          <t>['그냥 거의 배송이;; 쿠팡 로켓배송보다 빠르신거같아요..;; 어제시켰는데 오늘 받았구용 ㅎㅎ뭐 물건은 말해 뭐합니까 ㅎㅎㅎ 유선/무선 겸용으로 사용가능하구바람단계 8단계에 그냥 하\n그냥 거의 배송이;; 쿠팡 로켓배송보다 빠르신거같아요..;; 어제시켰는데 오늘 받았구용 ㅎㅎ\n뭐 물건은 말해 뭐합니까 ㅎㅎㅎ\n유선/무선 겸용으로 사용가능하구\n바람단계 8단계에 그냥 하나같이 완벽 합니당\n다른데꺼랑 비교 좀 해보고 삿는데 그래도 역시 이름 있는데꺼가 좋겠지 싶어서 제가 처음에 살려고 생각한 가격대에서 몇배나 뛰어도 그냥 구매했는데 ㅎㅎㅎ 특히 제가 회전되는거 찾고있었는데ㅠㅠㅠ너무 조씁니다\n근데 생각지 못하게 ㅋㅋㅋ 본체가 회전해서 깜짝 놀랬는데 그래서 _&lt; 포장도 잘되서 왔고 제일 기부니 좋았던건 미니선풍기.. 감덩.. ♥️ 많이 파세요\n주변에서 누군가가 캠핑용 서큘레이터 찾는다하면 추천할거가테용 ㅎㅎ 많이파세요!!']</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>73.61606359481812</v>
+        <v>99.83607530593872</v>
       </c>
     </row>
     <row r="11">
@@ -568,11 +568,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>['정말 기대이상입니다. 전용가방에 넣었을때는 부피가 작은데 높이가 3단까지 조절되고10인치 7엽 선풍기라 바람이 정말 풍성하고 셉니다. 리모콘까지 되어서 편리하고요. 9단까지 바람\n정말 기대이상입니다. 전용가방에 넣었을때는 부피가 작은데 높이가 3단까지 조절되고10인치 7엽 선풍기라 바람이 정말 풍성하고 셉니다.\n리모콘까지 되어서 편리하고요. 9단까지 바람이 조절되고 타이머는 9시간 까지 설정됩니다. 자연바람까지 설정되네요. 회전도 됩니다. ㄷㄷ\n더더 대박은 충전하는동안도 사용이 가능해서 집에서는 유선 선풍기로 캠핑가서는 무선으로 여름내내 잘 사용할것 같습니다.']</t>
+          <t>['다른 선풍기나 써큘레이터 사이에서 많이 고민했지만, 자취하는 사람에게 최적의 아이템인것 같습니다! 리모콘도 있어서 편하고, 무엇보다 무선이면서 충전+사용이 가능하다는게 좋아요!!크\n다른 선풍기나 써큘레이터 사이에서 많이 고민했지만, 자취하는 사람에게 최적의 아이템인것 같습니다!\n\n리모콘도 있어서 편하고, 무엇보다 무선이면서 충전+사용이 가능하다는게 좋아요!!\n\n크기가 작을까봐 걱정했는데 딱 적당하면서 완전히 접혀서 보관이나 다른 장소로 들고다니기도 좋을거같습니당~\n\n!!']</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>96.57194018363953</v>
+        <v>99.99864101409912</v>
       </c>
     </row>
     <row r="12">
@@ -581,11 +581,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>['사이즈가 우선 접었다 폈다가 되어서 정말 보관도 편하고요 이동할때도 좋아요 소음도 적고 디자인도 예쁘고 사용할수록 맘에 드는 선풍기랍니다 여름에 여행갈때 아주 요긴할듯 합니다아이들\n사이즈가 우선 접었다 폈다가 되어서 정말 보관도 편하고요 이동할때도 좋아요 소음도 적고 디자인도 예쁘고 사용할수록 맘에 드는 선풍기랍니다 여름에 여행갈때 아주 요긴할듯 합니다\n아이들 방에 놓아도 좋을것 같아서 하나더 구입하고 싶어요']</t>
+          <t>['더위를 많이 타는 가족이라 사계절 내내 선풍기를 꺼내놓고 사용하는데요.집에 있는 선풍기가 오래된거라 소음이 신경쓰여 보만 무선선풍기를 주문했어요. 보만 제품의 만족도가 큰데 이번에\n더위를 많이 타는 가족이라 사계절 내내 선풍기를 꺼내놓고 사용하는데요.\n집에 있는 선풍기가 오래된거라 소음이 신경쓰여 보만 무선선풍기를 주문했어요.\n보만 제품의 만족도가 큰데 이번에 구입한 선풍기도 너무 이쁘고, 가볍고!\n소음이 적은데다 착착 접이는 무선선풍기라 활용도가 엄청 좋네요~\n조용한데 아주 시원해요.\n다음주에 캠핑 갈 계획이라 보관 가방에 넣어 캠핑장에 가지고 가려구요.']</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>84.1637909412384</v>
+        <v>99.9895453453064</v>
       </c>
     </row>
     <row r="13">
@@ -594,11 +594,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>['세밀한 바람의 세기 조절, 리모컨을 사용한 간편한 컨트롤, 다양한 상황에서 사용할 수 있는 편의성과 효율적인 사용이 가능하여 만족스럽습니다.무선으로 자유롭게 움직이며 사용할 수 있\n세밀한 바람의 세기 조절, 리모컨을 사용한 간편한 컨트롤, 다양한 상황에서 사용할 수 있는 편의성과 효율적인 사용이 가능하여 만족스럽습니다.\n\n무선으로 자유롭게 움직이며 사용할 수 있고 피크닉, 캠핑용으로 사용할 수 있는 점이 마음에 듭니다. 집이 공간이 작은 편인데 사용하지 않을 때는 접어서 보관을 할 수 있어 여름이 지난 후에 정리를 할 때도 좋을 것 같아요.\n\n공간이 작아서 두개를 사용할 필요는 없는데 사용하기 편한 크기와 각도로 설정하여 이동하기도 편하고...충전을 하고 벽걸이 또는 테이블 용으로 사용할 수 있어 너무 잘 활용하고 있어요.\n\n스탠드형이 아닌 접이식이라 내구성도 꼼꼼하게 살펴봤는데 역시 보만의 만듬새는 우수하더군요.\n\n\n일반적인 형태의 제품보다 확실하게 편의성이 뛰어나고 활용도가 높다는걸 참고하시면 될 것 같아요.']</t>
+          <t>['저희집 사용중인데 가볍고 무선이라, 오십견때문에 고생하시는 시어머니도 주문해드렸습니다.집에있는 옛날선풍기 다 버리고 이걸로 다 바꾸고싶다하시네요.주방아일랜드위에 올려놓으시고 잘 사\n저희집 사용중인데 가볍고 무선이라, 오십견때문에 고생하시는 시어머니도 주문해드렸습니다.\n집에있는 옛날선풍기 다 버리고 이걸로 다 바꾸고싶다하시네요.\n주방아일랜드위에 올려놓으시고 잘 사용하고 계십니다.\n가벼워서 좋고 충전도편하고 어디든 들고다닐수있고 보관용이하고.. 세상좋은 보만이어요']</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>68.79627704620361</v>
+        <v>98.73388409614563</v>
       </c>
     </row>
     <row r="14">
@@ -607,11 +607,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>['일반선풍기 찾아보다가 발견하고 구매했어요.작고 소음도 없는 편이라고 해서요.음..근데 생각보다 소음이 좀 있네요.ㅠ.ㅠ이건 개인차가 있지만 1로 해도 저에게는 좀 거슬리네요.저는\n일반선풍기 찾아보다가 발견하고 구매했어요.\n작고 소음도 없는 편이라</t>
+          <t>['잘 사용하고 있어요.생각했던 것보다 소음이 좀 있기는한데,바람세기도 8단계나 되고 이동하기도 편해서만족스러운 구매였던 것 같아요.아! 그리고 충전기 연결해서 사용하면 바람세기가같은\n잘 사용하고 있어요.\n생각했던 것보다 소음이 좀 있기는한데,\n바람세기도 8단계나 되고 이동하기도 편해서\n만족스러운 구매였던 것 같아요.\n아! 그리고 충전기 연결해서 사용하면 바람세기가\n같은 1인데도 더 세구요.\n충전 다하고 코드 빼고 사용하면 좀 약해요.\n저는 약한게 좋아서 충전 다하고 사용중이에요.\n그런데 .\n한달 잘 사용중이지만 .ㅎㅎㅎ\n아무튼 오래 잘 사용할께요~!']</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>96.5890109539032</v>
+        <v>80.29012680053711</v>
       </c>
     </row>
     <row r="15">
@@ -620,11 +620,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>['제 서재에 에어컨 설치도 안되고, 선풍기를 가져다놓자니 공간차지 때문에 가뜩이나 복잡한 방이 더 복잡해지더라구요.보관과 휴대가 간편하면서 가볍고, 무선인 선풍기를 찾았는데 완전 딱\n제 서재에 에어컨 설치도 안되고, 선풍기를 가져다놓자니 공간차지 때문에 가뜩이나 복잡한 방이 더 복잡해지더라구요.\n보관과 휴대가 간편하면서 가볍고, 무선인 선풍기를 찾았는데 완전 딱 맘에 드는 제품이에요.\n\n완전히 접혀져서 전용 파우치에 담아두면 쓰지 않을때나 캠핑 갈때 찰떡이구요, 높이 조절에 회전까지 되고..\n리모컨 있고.. 바람 세기 조절까지 쓰기가 너무 편해요!\n무엇보다 무선이라서 이 방 저 방 필요할때마다 가볍게 옮겨다닐 수 있어서 완전 대대대 만족이에요!']</t>
+          <t>['정말 기대이상입니다. 전용가방에 넣었을때는 부피가 작은데 높이가 3단까지 조절되고10인치 7엽 선풍기라 바람이 정말 풍성하고 셉니다. 리모콘까지 되어서 편리하고요. 9단까지 바람\n정말 기대이상입니다. 전용가방에 넣었을때는 부피가 작은데 높이가 3단까지 조절되고10인치 7엽 선풍기라 바람이 정말 풍성하고 셉니다.\n리모콘까지 되어서 편리하고요. 9단까지 바람이 조절되고 타이머는 9시간 까지 설정됩니다. 자연바람까지 설정되네요. 회전도 됩니다. ㄷㄷ\n더더 대박은 충전하는동안도 사용이 가능해서 집에서는 유선 선풍기로 캠핑가서는 무선으로 여름내내 잘 사용할것 같습니다.']</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>92.56860017776489</v>
+        <v>99.91962313652039</v>
       </c>
     </row>
     <row r="16">
@@ -633,11 +633,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>['캠핑용 선풍기 찾다가 보만 무선 선풍기를 선택하였는데요. 받고보니 너무 좋네요~받자마자 피크닉 가면서 챙겨갔는데 접이식에 보관용 파우치까지 있어서 이동 뿐만 아니라 보관도 너무 좋\n캠핑용 선풍기 찾다가 보만 무선 선풍기를 선택하였는데요. 받고보니 너무 좋네요~\n받자마자 피크닉 가면서 챙겨갔는데 접이식에 보관용 파우치까지 있어서 이동 뿐만 아니라 보관도 너무 좋구요. 8단계까지 바람세기도 선택할 수 있는데 강력한 바람에 소음은 없어서 집에서 아기선풍기로 활용해도 좋겠더라구요. 특히 저희집은 아이들이 많이 뛰고해서 전기선에 걸려 넘어질까봐 늘 불안했는데 걱정 싹 사라졌어요. 캠핑용 야외용으로도 가정용으로도 활용성이 뛰어난 진짜 좋은 선풍기를 만나니 올 여름 왠지 든든하네요!']</t>
+          <t>['사이즈가 우선 접었다 폈다가 되어서 정말 보관도 편하고요 이동할때도 좋아요 소음도 적고 디자인도 예쁘고 사용할수록 맘에 드는 선풍기랍니다 여름에 여행갈때 아주 요긴할듯 합니다아이들\n사이즈가 우선 접었다 폈다가 되어서 정말 보관도 편하고요 이동할때도 좋아요 소음도 적고 디자인도 예쁘고 사용할수록 맘에 드는 선풍기랍니다 여름에 여행갈때 아주 요긴할듯 합니다\n아이들 방에 놓아도 좋을것 같아서 하나더 구입하고 싶어요']</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>96.58877849578857</v>
+        <v>99.87705945968628</v>
       </c>
     </row>
     <row r="17">
@@ -646,11 +646,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>['세상에!착착 접히는 선풍기는 처음 봤어요!군더더기 없는 심플한 디자인부터 맘에 쏙 들었는데요폴딩도 간편하고 각도 조절도 안정적이고무선 선풍기라 일반 유선 선풍기 보다모터가 약할 거\n세상에!\n착착 접히는 선풍기는 처음 봤어요!\n군더더기 없는 심플한 디자인부터 맘에 쏙 들었는데요\n폴딩도 간편하고 각도 조절도 안정적이고\n무선 선풍기라 일반 유선 선풍기 보다\n모터가 약할 거라 생각했는데 전혀 약하지 않아서 놀랐어요\n소음도 적고요!\n폴딩 후 파우치에 딱 넣어서 보관하면 되니\n자리차지도 하지 않고 너무 좋아요\n다음주 아이와 캠핑 가기로 약속했는데 슥 들고 가려고</t>
+          <t>['받자마자 넘 작아서 놀랬는데 혼자 자취하는 대학새내기 울딸한테 딱이더라고요 무선에 쓰임새 조절도 되고 무엇보다 좁은 원룸에 두세달 쓰고 선풍기보관이 번거로운데 보관이 넘 편해서\n받자마자 넘 작아서 놀랬는데 혼자 자취하는 대학새내기 울딸한테 딱이더라고요\n무선에 쓰임새 조절도 되고 무엇보다 좁은 원룸에 두세달 쓰고 선풍기보관이 번거로운데 보관이 넘 편해서 좋을거같아요\n에어컨과 같이 쓰기 딱 좋은제품입니다']</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>96.58902287483215</v>
+        <v>99.96234774589539</v>
       </c>
     </row>
     <row r="18">
@@ -659,11 +659,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>['이건 사셔야합니다. 일단 가벼워서 옮기기편하고 무선이 환상입니다! 밤새 충전해놓으면 다음날 이리저리 옮기며 베란다 주방 현관..무선으로 한참사용하고! 신세계여요접어서 보관하면 부피\n이건 사셔야합니다.\n일단 가벼워서 옮기기편하고 무선이 환상입니다!\n밤새 충전해놓으면 다음날 이리저리 옮기며 베란다 주방 현관..무선으로 한참사용하고! 신세계여요\n접어서 보관하면 부피도줄고 파우치도있고, 1~8단까지인데 강풍은 아니지만 세세하게 나뉘어있고 저는 2단이 좋더라구요. 옛날 무거운선풍기 쓰시는 어머니께도 주문해드렸습니다.\n저희집도 요거로 다 바꿀예정이어요']</t>
+          <t>['제가 개인적으로 보만 제품을 좋아하는데 이번 무선 선풍기 대박이네요! 접이식에다 휴대가방까지 있어서 놀러갈 때 들고가기도 좋고 신랑이 더위를 너무 심하게 많이 타서 ㅅ방마다 선풍기\n제가 개인적으로 보만 제품을 좋아하는데 이번 무선 선풍기 대박이네요! 접이식에다 휴대가방까지 있어서 놀러갈 때 들고가기도 좋고 신랑이 더위를 너무 심하게 많이 타서 ㅅ방마다 선풍기 하나씩 있는데 이동하면서 본인 개인 선풍기로 쓰기 너무 편하고 좋대요 ^^ 왠지 모르게 캠핑장 가져가면 지인들이 너도나도 다 사겠다고 할 거 같은 아이템입니다 ㅎㅎ']</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>96.58743143081665</v>
+        <v>99.86569285392761</v>
       </c>
     </row>
     <row r="19">
@@ -672,11 +672,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>['캠핑장에서도 집에서도 정말 유용한 제품입니다. 무선선풍기는 처음 써봤는데 이제 유선은 못쓸 것 같아요.집에서도 설거지할 때 아이 공부할 때 티비볼 때 등 이리 저리 옮겨다니기 편해\n캠핑장에서도 집에서도 정말 유용한 제품입니다.\n무선선풍기는 처음 써봤는데 이제 유선은 못쓸 것 같아요.\n집에서도 설거지할 때 아이 공부할 때 티비볼 때 등 이리 저리 옮겨다니기 편해요.\n소음이 거의 느껴지지 않을만큼 조용한데 바람은 강력해서 이거 사고 원래 집에있던 유선선풍기는 아예 쓰질 않네요;;\n멀티탭 연결해서 길게 선풍기 선이 나와있는거 정말 보기 싫었는데 마음의 평안을 찾았어요\n무조건 강추에요!']</t>
+          <t>['저도 상세페이지 처럼 걸어봤어요 ㅋㅋ 귀엽게 잘 걸려있고 전용 파우치가 진짜 대박이네요. 캠장 가서 쓸예정인데 너무 든든합니다! 리모컨도 주머니 쏙 넣을수 있고 좋아요. 근데 본체\n저도 상세페이지 처럼 걸어봤어요 ㅋㅋ 귀엽게 잘 걸려있고 전용 파우치가 진짜 대박이네요. 캠장 가서 쓸예정인데 너무 든든합니다! 리모컨도 주머니 쏙 넣을수 있고 좋아요. 근데 본체 버튼이 전원모양 두개 회전모양 두개로 붙어져 왔어요 ㅎㅎ 시간, 풍량 버튼이 없고 같은버튼으로만 되어있어서 디자인인줄 알았는데 아니더라고요?ㅋㅋ 근데 교환하느니 됐다 싶어서 걍 쓸라고요~ 디자인도 이쁘고 넘 만족스럽습니다^^ 시원해요~ 올 여름 잘 나겟슴다!']</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>96.58213257789612</v>
+        <v>98.56909513473511</v>
       </c>
     </row>
     <row r="20">
@@ -685,11 +685,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>['더위를 많이 타는 가족이라 사계절 내내 선풍기를 꺼내놓고 사용하는데요.집에 있는 선풍기가 오래된거라 소음이 신경쓰여 보만 무선선풍기를 주문했어요. 보만 제품의 만족도가 큰데 이번에\n더위를 많이 타는 가족이라 사계절 내내 선풍기를 꺼내놓고 사용하는데요.\n집에 있는 선풍기가 오래된거라 소음이 신경쓰여 보만 무선선풍기를 주문했어요.\n보만 제품의 만족도가 큰데 이번에 구입한 선풍기도 너무 이쁘고, 가볍고!\n소음이 적은데다 착착 접이는 무선선풍기라 활용도가 엄청 좋네요~\n조용한데 아주 시원해요.\n다음주에 캠핑 갈 계획이라 보관 가방에 넣어 캠핑장에 가지고 가려구요.']</t>
+          <t>['집에 도착하자마자 언박싱하고 부모님 퇴근 후 자랑했습니다 ㅋㅋ 디자인 너무 예쁘고 가볍고, 거기에 무선이라니 진짜 너무 좋아요. 평소에는 꽂아두고 사용하다가 전원선을 뽑아도 작동이\n집에 도착하자마자 언</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>96.58889174461365</v>
+        <v>99.90923404693604</v>
       </c>
     </row>
     <row r="21">
@@ -698,11 +698,11 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>['저희집 사용중인데 가볍고 무선이라, 오십견때문에 고생하시는 시어머니도 주문해드렸습니다.집에있는 옛날선풍기 다 버리고 이걸로 다 바꾸고싶다하시네요.주방아일랜드위에 올려놓으시고 잘 사\n저희집 사용중인데 가볍고 무선이라, 오십견때문에 고생하시는 시어머니도 주문해드렸습니다.\n집에있는 옛날선풍기 다 버리고 이걸로 다 바꾸고싶다하시네요.\n주방아일랜드위에 올려놓으시고 잘 사용하고 계십니다.\n가벼워서 좋고 충전도편하고 어디든 들고다닐수있고 보관용이하고.. 세상좋은 보만이어요']</t>
+          <t>['배송은 아주 맘에들어요.꼼꼼하게 포장되서 좋았어요.개봉하면서 웃었네요 미니미해서ㅎㅎ 크기가 상세히 나와있지만 실물로보니 작네요.금액에 비해.바람은 제법강해서 괜찮아요. 근데 8단까\n배송은 아주 맘에들어요.꼼꼼하게 포장되서 좋았어요.개봉하면서 웃었네요 미니미해서ㅎㅎ 크기가 상세히 나와있지만 실물로보니 작네요.금액에 비해.\n바람은 제법강해서 괜찮아요. 근데 8단까지 있는게 좀 불편하네요.한단 한단 올려야하니.글구 시간도 30분 단위가 안되고.\n좋은건 가볍고 어디에나 올려놔도 되고 무선이라서 코드 꽂기 애매할때 좋구 보관할때 쾌재를 부를듯.코펠같아요ㅎㅎ\n손풍기도 기엽^^']</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>73.61606359481812</v>
+        <v>91.27518534660339</v>
       </c>
     </row>
     <row r="22">
@@ -711,11 +711,11 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>['정말 기대이상입니다. 전용가방에 넣었을때는 부피가 작은데 높이가 3단까지 조절되고10인치 7엽 선풍기라 바람이 정말 풍성하고 셉니다. 리모콘까지 되어서 편리하고요. 9단까지 바람\n정말 기대이상입니다. 전용가방에 넣었을때는 부피가 작은데 높이가 3단까지 조절되고10인치 7엽 선풍기라 바람이 정말 풍성하고 셉니다.\n리모콘까지 되어서 편리하고요. 9단까지 바람이 조절되고 타이머는 9시간 까지 설정됩니다. 자연바람까지 설정되네요. 회전도 됩니다. ㄷㄷ\n더더 대박은 충전하는동안도 사용이 가능해서 집에서는 유선 선풍기로 캠핑가서는 무선으로 여름내내 잘 사용할것 같습니다.']</t>
+          <t>['선물용이었는데, 받는 사람이 매우 만족스럽다고 하더라구요. 높이 조절도 자유롭고, 접을 수도 있는데다, 무선 사용도 가능하고, 리모컨으로 조작도 가능하다고요. 정말 흠 잡을 곳이\n선물용이었는데, 받는 사람이 매우 만족스럽다고 하더라구요. 높이 조절도 자유롭고, 접을 수도 있는데다, 무선 사용도 가능하고, 리모컨으로 조작도 가능하다고요. 정말 흠 잡을 곳이 없는 제품이라며 극찬했어요. 덕분에 좋은 선물했습니다 ^^ 추천해요!!']</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>96.57194018363953</v>
+        <v>99.25179481506348</v>
       </c>
     </row>
     <row r="23">
@@ -724,11 +724,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>['사이즈가 우선 접었다 폈다가 되어서 정말 보관도 편하고요 이동할때도 좋아요 소음도 적고 디자인도 예쁘고 사용할수록 맘에 드는 선풍기랍니다 여름에 여행갈때 아주 요긴할듯 합니다아이들\n사이즈가 우선 접었다 폈다가 되어서 정말 보관도 편하고요 이동할때도 좋아요 소음도 적고 디자인도 예쁘고 사용할수록 맘에 드는 선풍기랍니다 여름에 여행갈때 아주 요긴할듯 합니다\n아이들 방에 놓아도 좋을것 같아서 하나더 구입하고 싶어요']</t>
+          <t>['일단 바람이 다른선풍기와는 차원이 다르게 시원해요 에어컨 튼거마냥 시원해요 그리고 키높이가 조절되니까 제일.낮게해서 아기옷장위에 올려서 틀어주고 해요 유</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>84.1637909412384</v>
+        <v>96.66627645492554</v>
       </c>
     </row>
     <row r="24">
@@ -737,11 +737,11 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>['세밀한 바람의 세기 조절, 리모컨을 사용한 간편한 컨트롤, 다양한 상황에서 사용할 수 있는 편의성과 효율적인 사용이 가능하여 만족스럽습니다.무선으로 자유롭게 움직이며 사용할 수 있\n세밀한 바람의 세기 조절, 리모컨을 사용한 간편한 컨트롤, 다양한 상황에서 사용할 수 있는 편의성과 효율적인 사용이 가능하여 만족스럽습니다.\n\n무선으로 자유롭게 움직이며 사용할 수 있고 피크닉, 캠핑용으로 사용할 수 있는 점이 마음에 듭니다. 집이 공간이 작은 편인데 사용하지 않을 때는 접어서 보관을 할 수 있어 여름이 지난 후에 정리를 할 때도 좋을 것 같아요.\n\n공간이 작아서 두개를 사용할 필요는 없는데 사용하기 편한 크기</t>
+          <t>['캠핑 때문에 구매 했는데, 일단 파우치가 포함이라 보관이나 트렁크에 넣기 편해서 좋습니다. 폴더블 방식이라 가방에 넣으면 코펠정도 밖에 안되네요. 그리고 무선이라 선으로부터 자유로\n캠핑 때문에 구매 했는데, 일단 파우치가 포함이라 보관이나 트렁크에 넣기 편해서 좋습니다. 폴더블 방식이라 가방에 넣으면 코펠정도 밖에 안되네요.\n그리고 무선이라 선으로부터 자유로운게 너무 좋고 전체적인 마감이나 퀄리티도 너무 좋습니다. 추천해요.']</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>68.79627704620361</v>
+        <v>99.87218976020813</v>
       </c>
     </row>
     <row r="25">
@@ -750,11 +750,11 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>['일반선풍기 찾아보다가 발견하고 구매했어요.작고 소음도 없는 편이라고 해서요.음..근데 생각보다 소음이 좀 있네요.ㅠ.ㅠ이건 개인차가 있지만 1로 해도 저에게는 좀 거슬리네요.저는\n일반선풍기 찾아보다가 발견하고 구매했어요.\n작고 소음도 없는 편이라고 해서요.\n음..근데 생각보다 소음이 좀 있네요.ㅠ.ㅠ\n이건 개인차가 있지만 1로 해도 저에게는 좀 거슬리네요.\n저는 캠핑용이라 아니라 제 방에서 사용할꺼라..\n세기를 1정도하면 초미풍처럼 아주 조용할 줄 알았거든요.\n아무튼 부피는 작아도 겁나 바람이 센데다\n바람세기 정도가 10까지 있어요.\n그리고 회전하니 진짜 몸통까지 다 돌아가네요.\n후기보고 어떤 느낌인가했는데, 이런거군요.ㅎㅎㅎ\n디자인은 참 이쁘고 세련됐어요.\n보관도 컴팩트하게 할 수 있어서 좋기도하구요.\n안방 선풍기와 비교했더니 미니하고 귀엽기도 하구요.\n남동생이 캠핑 자주 다니는데 벌써 탐내하네요.ㅎㅎㅎ\n뭐, 개인적으로 좀 실망하긴했지만,\n작은 선풍기치고는 내구성도 괜찮은 것 같고\n전반적으로 좋은 부분이 많아서 만족하는 구매에요.\n사은품으로 주신 미니선풍기도 감사해요.\n얘도 작은게 바람세기가 겁나 세네요.\n오래오래 잘 사용해볼께요^^']</t>
+          <t>['귀여워요~~ 특히 보관가방이??ㅋㅋ 사용하면서도 귀여운데 나중에 보관할 생각하면 기분 좋습니다. 다른 선풍기은 조립해체하고 커다란 박스에 넣어야해서 자리도 많이 차지하고&amp;helli\n귀여워요~~ 특히 보관가방이??ㅋㅋ 사용하면서도 귀여운데 나중에 보관할 생각하면 기분 좋습니다. 다른 선풍기은 조립해체하고 커다란 박스에 넣어야해서 자리도 많이 차지하고…\n\n바람도 좋고 리모컨이 정말정말 신의 한수네요^^']</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>96.5890109539032</v>
+        <v>98.43526482582092</v>
       </c>
     </row>
     <row r="26">
@@ -763,11 +763,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>['제 서재에 에어컨 설치도 안되고, 선풍기를 가져다놓자니 공간차지 때문에 가뜩이나 복잡한 방이 더 복잡해지더라구요.보관과 휴대가 간편하면서 가볍고, 무선인 선풍기를 찾았는데 완전 딱\n제 서재에 에어컨 설치도 안되고, 선풍기를 가져다놓자니 공간차지 때문에 가뜩이나 복잡한 방이 더 복잡해지더라구요.\n보관과 휴대가 간편하면서 가볍고, 무선인 선풍기를 찾았는데 완전 딱 맘에 드는 제품이에요.\n\n완전히 접혀져서 전용 파우치에 담아두면 쓰지 않을때나 캠핑 갈때 찰떡이구요, 높이 조절에 회전까지 되고..\n리모컨 있고.. 바람 세기 조절까지 쓰기가 너무 편해요!\n무엇보다 무선이라서 이 방 저 방 필요할때마다 가볍게 옮겨다닐 수 있어서 완전 대대대 만족이에요!']</t>
+          <t>['배송빠르게 잘받앗습니다. 사은품도 잘쓸게요.초미풍에 소음이 잇다는건 틀어보니 무슨말인지알겠고 예민하신 분들은 잘때 틀어놓긴 거슬릴것같은데 저는 서큘레이터로 쓰려고 사서 소음은 상관\n배송빠르게 잘받앗습니다. 사은품도 잘쓸게요.\n초미풍에 소음이 잇다는건 틀어보니 무슨말인지알겠고 예민하신 분들은 잘때 틀어놓긴 거슬릴것같은데 저는 서큘레이터로 쓰려고 사서 소음은 상관없을거같네요. 접이식이라 다양하게 쓸수잇어서 좋네요. 리모컨이 스티로폴박스 사이에 잇어서 하마터면 버릴뻔ㅋ 잘쓸게요']</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>92.56860017776489</v>
+        <v>98.99058938026428</v>
       </c>
     </row>
     <row r="27">
@@ -776,11 +776,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>['캠핑용 선풍기 찾다가 보만 무선 선풍기를 선택하였는데요. 받고보니 너무 좋네요~받자마자 피크닉 가면서 챙겨갔는데 접이식에 보관용 파우치까지 있어서 이동 뿐만 아니라 보관도 너무 좋\n캠핑용 선풍기 찾다가 보만 무선 선풍기를 선택하였는데요. 받고보니 너무 좋네요~\n받자마자 피크닉 가면서 챙겨갔는데 접이식에 보관용 파우치까지 있어서 이동 뿐만 아니라 보관도 너무 좋구요. 8단계까지 바람세기도 선택할 수 있는데 강력한 바람에 소음은 없어서 집에서 아기선풍기로 활용해도 좋겠더라구요. 특히 저희집은 아이들이 많이 뛰고해서 전기선에 걸려 넘어질까봐 늘 불안했는데 걱정 싹 사라졌어요. 캠핑용 야외용으로도 가정용으로도 활용성이 뛰어난 진짜 좋은 선풍기를 만나니 올 여름 왠지 든든하네요!']</t>
+          <t>['아담한 크기지만 생각보다 바람도 세고 무엇보다 무선이라 이동성이 좋아 여기저기 필요한 장소로 가지고 다니면서 쓸 수 있고 접었다 폈다 모양 조절, 각도 조절을 할 수 있어서 좋아요\n아담한 크기지만 생각보다 바람도 세고 무엇보다 무선이라 이동성이 좋아 여기저기 필요한 장소로 가지고 다니면서 쓸 수 있고 접었다 폈다 모양 조절, 각도 조절을 할 수 있어서 좋아요. 보관용 파우치가 있어 야외로 가지고 기도 편하고 겨울에 보관하기도 편하겠어요.']</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>96.58877849578857</v>
+        <v>99.96863007545471</v>
       </c>
     </row>
     <row r="28">
@@ -789,11 +789,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>['세상에!착착 접히는 선풍기는 처음 봤어요!군더더기 없는 심플한 디자인부터 맘에 쏙 들었는데요폴딩도 간편하고 각도 조절도 안정적이고무선 선풍기라 일반 유선 선풍기 보다모터가 약할 거\n세상에!\n착착 접히는 선풍기는 처음 봤어요!\n군더더기 없는 심플한 디자인부터 맘에 쏙 들었는데요\n폴딩도 간편하고 각도 조절도 안정적이고\n무선 선풍기라 일반 유선 선풍기 보다\n모터가 약할 거라 생각했는데 전혀 약하지 않아서 놀랐어요\n소음도 적고요!\n폴딩 후 파우치에 딱 넣어서 보관하면 되니\n자리차지도 하지 않고 너무 좋아요\n다음주 아이와 캠핑 가기로 약속했는데 슥 들고 가려고요^^\n참! 사은품으로 보내주신 핸디 선풍기도 진짜 대박이었어요']</t>
+          <t>['우선 시원하고 수납성은 좋습니다.근데.. 1단계 및 자연풍이 너무 쎕니다.특히 1단계 및 자연풍때도 펜소음이 커서원래쓰던 브리즈킹 제품으로 옮겨 놓았어요무소음은 아닙니다. 생각보다\n우선 시원하고 수납성은 좋습니다.\n근데.. 1단계 및 자연풍이 너무 쎕니다.\n특히 1단계 및 자연풍때도 펜소음이 커서\n원래쓰던 브리즈킹 제품으로 옮겨 놓았어요\n무소음은 아닙니다. 생각보다 소음 있고 아기 한테 하시려면 먼 곳에 갔다 놓고 쓰셔야겠네요.\n.']</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>96.58902287483215</v>
+        <v>56.15257620811462</v>
       </c>
     </row>
     <row r="29">
@@ -802,11 +802,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>['이건 사셔야합니다. 일단 가벼워서 옮기기편하고 무선이 환상입니다! 밤새 충전해놓으면 다음날 이리저리 옮기며 베란다 주방 현관..무선으로 한참사용하고! 신세계여요접어서 보관하면 부피\n이건 사셔야합니다.\n일단 가벼워서 옮기기편하고 무선이 환상입니다!\n밤새 충전해놓으면 다음날 이리저리 옮기며 베란다 주방 현관..무선으로 한참사용하고! 신세계여요\n접어서 보관하면 부피도줄고 파우치도있고, 1~8단까지인데 강풍은 아니지만 세세하게 나뉘어있고 저는 2단이 좋더라구요. 옛날 무거운선풍기 쓰시는 어머니께도 주문해드렸습니다.\n저희집도 요거로 다 바꿀예정이어요']</t>
+          <t>['작고 가벼워서 이동하기 너무 편리합니다. 디자인도 깔끔해서 맘에들어요 그리고 생각보다 시원하고 회전각도도 많이 돌아가서 정말 잘산거같아요 여름 지나서 보관하기도 너무 컴팩트하고 최\n작고 가벼워서 이동하기 너무 편리합니다</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>96.58743143081665</v>
+        <v>99.91916418075562</v>
       </c>
     </row>
     <row r="30">
@@ -815,11 +815,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>['캠핑장에서도 집에서도 정말 유용한 제품입니다. 무선선풍기는 처음 써봤는데 이제 유선은 못쓸 것 같아요.집에서도 설거지할 때 아이 공부할 때 티비볼 때 등 이리 저리 옮겨다니기 편해\n캠핑장에서도 집에서도 정말 유용한 제품입니다.\n무선선풍기는 처음 써봤는데 이제 유선은 못쓸 것 같아요.\n집에서도 설거지할 때 아이 공부할 때 티비</t>
+          <t>['날이 점점 더워서 휴대용 큰사이즈선풍기 찾다가 주문했는데 실제로받아보니 완전 큼직하구 바람도 강해서너무 좋아요!각도 조절,높이 조절도 내맘대로 되고 걸어 써도 되니까 편해요야외에\n날이 점점 더워서 휴대용 큰사이즈\n선풍기 찾다가 주문했는데 실제로\n받아보니 완전 큼직하구 바람도 강해서\n너무 좋아요!\n각도 조절,높이 조절도 내맘대로 되고\n걸어 써도 되니까 편해요\n~']</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>96.58213257789612</v>
+        <v>99.75587725639343</v>
       </c>
     </row>
     <row r="31">
@@ -828,11 +828,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>['더위를 많이 타는 가족이라 사계절 내내 선풍기를 꺼내놓고 사용하는데요.집에 있는 선풍기가 오래된거라 소음이 신경쓰여 보만 무선선풍기를 주문했어요. 보만 제품의 만족도가 큰데 이번에\n더위를 많이 타는 가족이라 사계절 내내 선풍기를 꺼내놓고 사용하는데요.\n집에 있는 선풍기가 오래된거라 소음이 신경쓰여 보만 무선선풍기를 주문했어요.\n보만 제품의 만족도가 큰데 이번에 구입한 선풍기도 너무 이쁘고, 가볍고!\n소음이 적은데다 착착 접이는 무선선풍기라 활용도가 엄청 좋네요~\n조용한데 아주 시원해요.\n다음주에 캠핑 갈 계획이라 보관 가방에 넣어 캠핑장에 가지고 가려구요.']</t>
+          <t>['생각보다 작은 사이즈에 조금 놀랐네요^^;;디자인은 깔끔하고 이쁘지만 소음은 일반선풍기랑 비교하면 별 차이는 없는 것 같아요케이스가 있어 보관하기는 편리하겠어요~\n생각보다 작은 사이즈에 조금 놀랐네요^^;;\n디자인은 깔끔하고 이쁘지만 소음은 일반선풍기랑 비교하면 별 차이는 없는 것 같아요\n케이스가 있어 보관하기는 편리하겠어요~']</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>96.58889174461365</v>
+        <v>99.68751072883606</v>
       </c>
     </row>
     <row r="32">
@@ -841,11 +841,11 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>['저희집 사용중인데 가볍고 무선이라, 오십견때문에 고생하시는 시어머니도 주문해드렸습니다.집에있는 옛날선풍기 다 버리고 이걸로 다 바꾸고싶다하시네요.주방아일랜드위에 올려놓으시고 잘 사\n저희집 사용중인데 가볍고 무선이라, 오십견때문에 고생하시는 시어머니도 주문해드렸습니다.\n집에있는 옛날선풍기 다 버리고 이걸로 다 바꾸고싶다하시네요.\n주방아일랜드위에 올려놓으시고 잘 사용하고 계십니다.\n가벼워서 좋고 충전도편하고 어디든 들고다닐수있고 보관용이하고.. 세상좋은 보만이어요']</t>
+          <t>['심플한 외형을 보고 성능이 좋을까 싶었는데 사이즈도 마음대로 조절할수 있을 뿐만 아니라 성능도 좋아서 시원한 여름을 보낼 수 있을 것 같습니다.다만 풍량 조절을 단계별로 지정할 수\n심플한 외형을 보고 성능이 좋을까 싶었는데 사이즈도 마음대로 조절할수 있을 뿐만 아니라 성능도 좋아서 시원한 여름을 보낼 수 있을 것 같습니다.\n다만 풍량 조절을 단계별로 지정할 수 없는 것은 다소 아쉽네요']</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>73.61606359481812</v>
+        <v>98.83697032928467</v>
       </c>
     </row>
     <row r="33">
@@ -854,11 +854,11 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>['정말 기대이상입니다. 전용가방에 넣었을때는 부피가 작은데 높이가 3단까지 조절되고10인치 7엽 선풍기라 바람이 정말 풍성하고 셉니다. 리모콘까지 되어서 편리하고요. 9단까지 바람\n정말 기대이상입니다. 전용가방에 넣었을때는 부피가 작은데 높이가 3단까지 조절되고10인치 7엽 선풍기라 바람이 정말 풍성하고 셉니다.\n리모콘까지 되어서 편리하고요. 9단까지 바람이 조절되고 타이머는 9시간 까지 설정됩니다. 자연바람까지 설정되네요. 회전도 됩니다. ㄷㄷ\n더더 대박은 충전하는동안도 사용이 가능해서 집에서는 유선 선풍기로 캠핑가서는 무선으로 여름내내 잘 사용할것 같습니다.']</t>
+          <t>['유선 연결시 소리가 다소 있지만 못들을 정도는 아니네요. 무엇보다 크기에 비해 너무 시원하고 휴대하면서 다니기에도 좋고 회전도 잘되고 기능적으로 아주 만족스럽습니다.\n유선 연결시 소리가 다소 있지만 못들을 정도는 아니네요. 무엇보다 크기에 비해 너무 시원하고 휴대하면서 다니기에도 좋고 회전도 잘되고 기능적으로 아주 만족스럽습니다.']</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>96.57194018363953</v>
+        <v>99.85341429710388</v>
       </c>
     </row>
     <row r="34">
@@ -867,11 +867,11 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>['사이즈가 우선 접었다 폈다가 되어서 정말 보관도 편하고요 이동할때도 좋아요 소음도 적고 디자인도 예쁘고 사용할수록 맘에 드는 선풍기랍니다 여름에 여행갈때 아주 요긴할듯 합니다아이들\n사이즈가 우선 접었다 폈다가 되어서 정말 보관도 편하고요 이동할때도 좋아요 소음도 적고 디자인도 예쁘고 사용할수록 맘에 드는 선풍기랍니다 여름에 여행갈때 아주 요긴할듯 합니다\n아이들 방에 놓아도 좋을것 같아서 하나더 구입하고 싶어요']</t>
+          <t>['크기도 딱 제가 원하던 사이즈에 높낮이를 자유롭게 조절할 수 있는 것이 맘에 들어요. 그리고 선풍피 아래가 돌면서 회전하는 신박함. 그런데 소음이 생각보다 있어요. 그래서 별 하나\n크기도 딱 제가 원하던 사이즈에 높낮이를 자유롭게 조절할 수 있는 것이 맘에 들어요. 그리고 선풍피 아래가 돌면서 회전하는 신박함. 그런데 소음이 생각보다 있어요. 그래서 별 하나 뺐어요.']</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>84.1637909412384</v>
+        <v>99.30546879768372</v>
       </c>
     </row>
     <row r="35">
@@ -880,11 +880,11 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>['세밀한 바람의 세기 조절, 리모컨을 사용한 간편한 컨트롤, 다양한 상황에서 사용할 수 있는 편의성과 효율적인 사용이 가능하여 만족스럽습니다.무선으로 자유롭게 움직이며 사용할 수 있\n세밀한 바람의 세기 조절, 리모컨을 사용한 간편한 컨트롤, 다양한 상황에서 사용할 수 있는 편의성과 효율적인 사용이 가능하여 만족스럽습니다.\n\n무선으로 자유롭게 움직이며 사용할 수 있고 피크닉, 캠핑용으로 사용할 수 있는 점이 마음에 듭니다. 집이 공간이 작은 편인데 사용하지 않을 때는 접어서 보관을 할 수 있어 여름이 지난 후에 정리를 할 때도 좋을 것 같아요.\n\n공간이 작아서 두개를 사용할 필요는 없는데 사용하기 편한 크기와 각도로 설정하여 이동하기도 편하고...충전을 하고 벽걸이 또는 테이블 용으로 사용할 수 있어 너무 잘 활용하고 있어요.\n\n스탠드형이 아닌 접이식이라 내구성도 꼼꼼하게 살펴봤는데 역시 보만의 만듬새는 우수하더군요.\n\n\n일반적인 형태의 제품보다 확실하게 편의성이 뛰어나고 활용도가 높다는걸 참고하시면 될 것 같아요.']</t>
+          <t>['여름 캠핑때 선풍기 또 어떻게 차에 넣나 고민했는데그 고민 싹 사라졌네요가볍고 바람도 풍성하고 디자인까지 예뻐서 집에서도 야외에서도 쓰기에 아주 만족입니다리모컨도 있어서 더욱 편리\n여름 캠핑때 선풍기 또 어떻게 차에 넣나 고민했는데\n그 고민 싹 사라졌네요\n가볍고 바람도 풍성하고 디자인까지 예뻐서 집에서도 야외에서도 쓰기에 아주 만족입니다\n리모컨도 있어서 더욱 편리해요']</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>68.79627704620361</v>
+        <v>99.9996542930603</v>
       </c>
     </row>
     <row r="36">
@@ -893,11 +893,11 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>['일반선풍기 찾아보다가 발견하고 구매했어요.작고 소음도 없는 편이라고 해서요.음..근데 생각보다 소음이 좀 있네요.ㅠ.ㅠ이건 개인차가 있지만 1로 해도 저에게는 좀 거슬리네요.저는\n일반선풍기 찾아보다가 발견하고 구매했어요.\n작고 소음도 없는 편이라고 해서요.\n음..근데 생각보다 소음이 좀 있네요.ㅠ.ㅠ\n이건 개인차가 있지만 1로 해도 저에게는 좀 거슬리네요.\n저는 캠핑용이라 아니라 제 방에서 사용할꺼라..\n세기를 1정도하면 초미풍처럼 아주 조용할 줄 알았거든요.\n아무튼 부피는 작아도 겁나 바람이 센데다\n바람세기 정도가 10까지 있어요.\n그리고 회전하니 진짜 몸통까지 다 돌아가네요.\n후기보고 어떤 느낌인가했는데, 이런거군요.ㅎㅎㅎ\n디자인은 참 이쁘고 세련됐어요.\n보관도 컴팩트하게 할 수 있어서 좋기도하구요.\n안방 선풍기와 비교했더니 미니하고 귀엽기도 하구요.\n남동생이 캠핑 자주 다니는데 벌써 탐내하네요.ㅎㅎㅎ\n뭐, 개인적으로 좀 실망하긴했지만,\n작은 선풍기치고는 내구성도 괜찮은 것 같고\n전반적으로 좋은 부분이 많아서 만족하</t>
+          <t>['장점-빠른 배송.사이즈 작아서 좋고.휴대하기 최고.안 쓸때 보관도 자리 차지 않고 정말 좋고.바람도 약하지 않아요.작은 휴대용 선풍기를 주셨네요.너무 예쁘고 시원해요.단점-약간 소\n장점-빠른 배송.사이즈 작아서 좋고.휴대하기 최고.안 쓸때 보관도 자리 차지 않고 정말 좋고.바람도 약하지 않아요.\n작은 휴대용 선풍기를 주셨네요.너무 예쁘고 시원해요.\n\n단점-약간 소음이 있네요.']</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>96.5890109539032</v>
+        <v>99.93639588356018</v>
       </c>
     </row>
     <row r="37">
@@ -906,11 +906,11 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>['제 서재에 에어컨 설치도 안되고, 선풍기를 가져다놓자니 공간차지 때문에 가뜩이나 복잡한 방이 더 복잡해지더라구요.보관과 휴대가 간편하면서 가볍고, 무선인 선풍기를 찾았는데 완전 딱\n제 서재에 에어컨 설치도 안되고, 선풍기를 가져다놓자니 공간차지 때문에 가뜩이나 복잡한 방이 더 복잡해지더라구요.\n보관과 휴대가 간편하면서 가볍고, 무선인 선풍기를 찾았는데 완전 딱 맘에 드는 제품이에요.\n\n완전히 접혀져서 전용 파우치에 담아두면 쓰지 않을때나 캠핑 갈때 찰떡이구요, 높이 조절에 회전까지 되고..\n리모컨 있고.. 바람 세기 조절까지 쓰기가 너무 편해요!\n무엇보다 무선이라서 이 방 저 방 필요할때마다 가볍게 옮겨다닐 수 있어서 완전 대대대 만족이에요!']</t>
+          <t>['보관성에 아주 만족했고요접이식선풍기의 장점을 다가졌네요이동도 편하구요아들방 옷걸이에 걸어두고 사용중입니다.~옛날의 뭉퉁하고 무겁던 선풍기 분해둔거 버릴랍니다\n보관성에 아주 만족했고요\n접이식선풍기의 장점을 다가졌네요\n이동도 편하구요\n아들방 옷걸이에 걸어두고 사용중입니다.~\n옛날의 뭉퉁하고 무겁던 선풍기 분해둔거 버릴랍니다']</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>92.56860017776489</v>
+        <v>95.39088010787964</v>
       </c>
     </row>
     <row r="38">
@@ -919,11 +919,11 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>['캠핑용 선풍기 찾다가 보만 무선 선풍기를 선택하였는데요. 받고보니 너무 좋네요~받자마자 피크닉 가면서 챙겨갔는데 접이식에 보관용 파우치까지 있어서 이동 뿐만 아니라 보관도 너무 좋\n캠핑용 선풍기 찾다가 보만 무선 선풍기를 선택하였는데요. 받고보니 너무 좋네요~\n받자마자 피크닉 가면서 챙겨갔는데 접이식에 보관용 파우치까지 있어서 이동 뿐만 아니라 보관도 너무 좋구요. 8단계까지 바람세기도 선택할 수 있는데 강력한 바람에 소음은 없어서 집에서 아기선풍기로 활용해도 좋겠더라구요. 특히 저희집은 아이들이 많이 뛰고해서 전기선에 걸려 넘어질까봐 늘 불안했는데 걱정 싹 사라졌어요. 캠핑용 야외용으로도 가정용으로도 활용성이 뛰어난 진짜 좋은 선풍기를 만나니 올 여름 왠지 든든하네요!']</t>
+          <t>['아기바람은 아닌거 같아요. 1단계도 생각보다 바람이 셉니다.무선인점 접어서 보관 가능한점은 좋았습니다.충천기가 되게 뜨거울때가 있던대 정상인지 모르겠네요\n아기바람은 아닌거 같아요. 1단계도 생각보다 바람이 셉니다.\n무선인점 접어서 보관 가능한점은 좋았습니다.\n충천기가 되게 뜨거울때가 있던대 정상인지 모르겠네요']</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>96.58877849578857</v>
+        <v>66.69399738311768</v>
       </c>
     </row>
     <row r="39">
@@ -932,11 +932,11 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>['세상에!착착 접히는 선풍기는 처음 봤어요!군더더기 없는 심플한 디자인부터 맘에 쏙 들었는데요폴딩도 간편하고 각도 조절도 안정적이고무선 선풍기라 일반 유선 선풍기 보다모터가 약할 거\n세상에!\n착착 접히는 선풍기는 처음 봤어요!\n군더더기 없는 심플한 디자인부터 맘에 쏙 들었는데요\n폴딩도 간편하고 각도 조절도 안정적이고\n무선 선풍기라 일반 유선 선풍기 보다\n모터가 약할 거라 생각했는데 전혀 약하지 않아서 놀랐어요\n소음도 적고요!\n폴딩 후 파우치에 딱 넣어서 보관하면 되니\n자리차지도 하지 않고 너무 좋아요\n다음주 아이와 캠핑 가기로 약속했는데 슥 들고 가려고요^^\n참! 사은품으로 보내주신 핸디 선풍기도 진짜 대박이었어요']</t>
+          <t>['캠핑 자주다니는데 슬금슬금 날씨가더워져서 미리 장만했는데 이번주말에엄청 덥더라구요 그래서 사용했어요!자연바람으로 하니 선선하니 너무 좋네요.접이식이라 간편하게 들고 다니기도 좋구요\n캠핑 자주다니는데 슬금슬금 날씨가\n더워져서 미리 장만했는데 이번주말에\n엄청 덥더라구요 그래서 사용했어요!\n자연바람으로 하니 선선하니 너무 좋네요.\n접이식이라 간편하게 들고 다니기도 좋구요!']</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>96.58902287483215</v>
+        <v>99.99867677688599</v>
       </c>
     </row>
     <row r="40">
@@ -945,11 +945,11 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>['이건 사셔야합니다. 일단 가벼워서 옮기기편하고 무선이 환상입니다! 밤새 충전해놓으면 다음날 이리저리 옮기며 베란다 주방 현관..무선으로 한참사용하고! 신세계여요접어서 보관하면 부피\n이건 사셔야합니다.\n일단 가벼워서 옮기기편하고 무선이 환상입니다!\n밤새 충전해놓으면 다음날 이리저리 옮기며 베란다 주방 현관..무선으로 한참사용하고! 신세계여요\n접어서 보관하면 부피도줄고 파우치도있고, 1~8단까지인데 강풍은 아니지만 세세하게 나뉘어있고 저는 2단이 좋더라구요. 옛날 무거운선풍기 쓰시는 어머니께도 주문해드렸습니다.\n저희집도 요거로 다 바꿀예정이어요']</t>
+          <t>['배송은 진짜 빨랐어요~생각보다 작긴하지만 실용성 좋아요!!무선도 되고 집에서는 그냥 코드 꽂아놓고 쓰고있습니다. 잘쓸게요\n배송은 진짜 빨랐어요~\n생각보다 작긴하지만 실용성 좋아요!!\n무선도 되고 집에서는 그냥 코드 꽂아놓고 쓰고있습니다. 잘쓸게요']</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>96.58743143081665</v>
+        <v>99.49749112129211</v>
       </c>
     </row>
     <row r="41">
@@ -958,11 +958,11 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>['캠핑장에서도 집에서도 정말 유용한 제품입니다. 무선선풍기는 처음 써봤는데 이제 유선은 못쓸 것 같아요.집에서도 설거지할 때 아이 공부할 때 티비볼 때 등 이리 저리 옮겨다니기 편해\n캠핑장에서도 집에서도 정말 유용한 제품입니다.\n무선선풍기는 처음 써봤는데 이제 유선은 못쓸 것 같아요.\n집에서도 설거지할 때 아이 공부할 때 티비볼 때 등 이리 저리 옮겨다니기 편해요.\n소음이 거의 느껴지지 않을만큼 조용한데 바람은 강력해서 이거 사고 원래 집에있던 유선선풍기는 아예 쓰질 않네요;;\n멀티탭 연결해서 길게 선풍기 선이 나와있는거 정말 보기 싫었는데 마음의 평안을 찾았어요\n무조건 강추에요!']</t>
+          <t>['빠른 배송 감사드리며 생각보다는 작지만 강력한 성능과 비교적 소음이 적고 여러 형태로 변환이 가능하여 매루 만족합니다.\n빠른 배송 감사드리며 생각보다는 작지만 강력한 성능과 비교적 소음이 적고 여러 형태로 변환이 가능하여 매루 만족합니다.']</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>96.58213257789612</v>
+        <v>99.83956813812256</v>
       </c>
     </row>
     <row r="42">
@@ -971,11 +971,11 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>['더위를 많이 타는 가족이라 사계절 내내 선풍기를 꺼내놓고 사용하는데요.집에 있는 선풍기가 오래된거라 소음이 신경쓰여 보만 무선선풍기를 주문했어요. 보만 제품의 만족도가 큰데 이번에\n더위를 많이 타는 가족이라 사계절 내내 선풍기를 꺼내놓고 사용하는데요.\n집에 있는 선풍기가 오래된거라 소음이 신경쓰여 보만 무선선풍기를 주문했어요.\n보만 제품의 만족도가 큰데 이번에 구입한 선풍기도 너무 이쁘고, 가볍고!\n소음이 적은데다 착착 접이는 무선선풍기라 활용도가 엄청 좋네요~\n조용한데 아주 시원해요.\n다음주에 캠핑 갈 계획이라 보관 가방에 넣어 캠핑장에 가지고 가려구요.']</t>
+          <t>['적당한 크기에 가볍고 좋아요! 디자인도 깔끔해서 어디든 잘 어울릴 것 같습니다.집에서도 쓰고 캠핑장에서도 쓰는데 편해요!충전기 선이 짧아서 좀 아쉬워요!\n적당한 크기에 가볍고 좋아요! 디자인도 깔끔해서 어디든 잘 어울릴 것 같습니다.\n집에서도 쓰고 캠핑장에서도 쓰는데 편해요!\n충전기 선이 짧아서 좀 아쉬워요!']</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>96.58889174461365</v>
+        <v>99.96674060821533</v>
       </c>
     </row>
     <row r="43">
@@ -984,11 +984,11 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>['저희집 사용중인데 가볍고 무선이라, 오십견때문에 고생하시는 시어머니도 주문해드렸습니다.집에있는 옛날선풍기 다 버</t>
+          <t>['아담해서 거실보다는 방에서 자리차지 않고 쓸수있어요 작아도 바람세기도 좋고 소음도 적은듯...무선도 되고 보관가방도 있어 캠핑용으로 써야겠어요\n아담해서 거실보다는 방에서 자리차지 않고 쓸수있어요 작아도 바람세기도 좋고 소음도 적은듯...무선도 되고 보관가방도 있어 캠핑용으로 써야겠어요']</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>73.61606359481812</v>
+        <v>99.93093609809875</v>
       </c>
     </row>
     <row r="44">
@@ -997,11 +997,11 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>['정말 기대이상입니다. 전용가방에 넣었을때는 부피가 작은데 높이가 3단까지 조절되고10인치 7엽 선풍기라 바람이 정말 풍성하고 셉니다. 리모콘까지 되어서 편리하고요. 9단까지 바람\n정말 기대이상입니다. 전용가방에 넣었을때는 부피가 작은데 높이가 3단까지 조절되고10인치 7엽 선풍기라 바람이 정말 풍성하고 셉니다.\n리모콘까지 되어서 편리하고요. 9단까지 바람이 조절되고 타이머는 9시간 까지 설정됩니다. 자연바람까지 설정되네요. 회전도 됩니다. ㄷㄷ\n더더 대박은 충전하는동안도 사용이 가능해서 집에서는 유선 선풍기로 캠핑가서는 무선으로 여름내내 잘 사용할것 같습니다.']</t>
+          <t>['작지만 충분한 풍량이 맘에 드네요.무선이라 이동하기에도 좋고 제품 마무리도 깔끔하구요.디자인도 예뻐요.\n작지만 충분한 풍량이 맘에 드네요.무선이라 이동하기에도 좋고 제품 마무리도 깔끔하구요.디자인도 예뻐요.']</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>96.57194018363953</v>
+        <v>99.78805184364319</v>
       </c>
     </row>
     <row r="45">
@@ -1010,11 +1010,11 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>['사이즈가 우선 접었다 폈다가 되어서 정말 보관도 편하고요 이동할때도 좋아요 소음도 적고 디자인도 예쁘고 사용할수록 맘에 드는 선풍기랍니다 여름에 여행갈때 아주 요긴할듯 합니다아이들\n사이즈가 우선 접었다 폈다가 되어서 정말 보관도 편하고요 이동할때도 좋아요 소음도 적고 디자인도 예쁘고 사용할수록 맘에 드는 선풍기랍니다 여름에 여행갈때 아주 요긴할듯 합니다\n아이들 방에 놓아도 좋을것 같아서 하나더 구입하고 싶어요']</t>
+          <t>['접이식으로 수납이 어마어마하게 좋음무선이라 이동이 편함 폈을때 중심부가 약해서 동작시 몸체가 흔들리고 부실한게 단점임\n접이식으로 수납이 어마어마하게 좋음\n무선이라 이동이 편함 폈을때 중심부가 약해서 동작시 몸체가 흔들리고 부실한게 단점임']</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>84.1637909412384</v>
+        <v>81.57464861869812</v>
       </c>
     </row>
     <row r="46">
@@ -1023,11 +1023,11 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>['세밀한 바람의 세기 조절, 리모컨을 사용한 간편한 컨트롤, 다양한 상황에서 사용할 수 있는 편의성과 효율적인 사용이 가능하여 만족스럽습니다.무선으로 자유롭게 움직이며 사용할 수 있\n세밀한 바람의 세기 조절, 리모컨을 사용한 간편한 컨트롤, 다양한 상황에서 사용할 수 있는 편의성과 효율적인 사용이 가능하여 만족스럽습니다.\n\n무선으로 자유롭게 움직이며 사용할 수 있고 피크닉, 캠핑용으로 사용할 수 있는 점이 마음에 듭니다. 집이 공간이 작은 편인데 사용하지 않을 때는 접어서 보관을 할 수 있어 여름이 지난 후에 정리를 할 때도 좋을 것 같아요.\n\n공간이 작아서 두개를 사용할 필요는 없는데 사용하기 편한 크기와 각도로 설정하여 이동하기도 편하고...충전을 하고 벽걸이 또는 테이블 용으로 사용할 수 있어 너무 잘 활용하고 있어요.\n\n스탠드형이 아닌 접이식이라 내구성도 꼼꼼하게 살펴봤는데 역시 보만의 만듬새는 우수하더군요.\n\n\n일반적인 형태의 제품보다 확실하게 편의성이 뛰어나고 활용도가 높다는걸 참고하시면 될 것 같아요.']</t>
+          <t>['충전해서 여기 저기 들고 다니며 시원한바람을 사용할 수 있어 넘 조아요소음도 거의 들리지 않고요\n충전해서 여기 저기 들고 다니며 시원한\n바람을 사용할 수 있어 넘 조아요\n소음도 거의 들리지 않고요']</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>68.79627704620361</v>
+        <v>99.73859190940857</v>
       </c>
     </row>
     <row r="47">
@@ -1036,11 +1036,11 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>['일반선풍기 찾아보다가 발견하고 구매했어요.작고 소음도 없는 편이라고 해서요.음..근데 생각보다 소음이 좀 있네요.ㅠ.ㅠ이건 개인차가 있지만 1로 해도 저에게는 좀 거슬리네요.저는\n일반선풍기 찾아보다가 발견하고 구매했어요.\n작고 소음도 없는 편이라고 해서요.\n음..근데 생각보다 소음이 좀 있네요.ㅠ.ㅠ\n이건 개인차가 있지만 1로 해도 저에게는 좀 거슬리네요.\n저는 캠핑용이라 아니라 제 방에서 사용할꺼라..\n세기를 1정도하면 초미풍처럼 아주 조용할 줄 알았거든요.\n아무튼 부피는 작아도 겁나 바람이 센데다\n바람세기 정도가 10까지 있어요.\n그리고 회전하니 진짜 몸통까지 다 돌아가네요.\n후기보고 어떤 느낌인가했는데, 이런거군요.ㅎㅎㅎ\n디자인은 참 이쁘고 세련됐어요.\n보관도 컴팩트하게 할 수 있어서 좋기도하구요.\n안방 선풍기와 비교했더니 미니하고 귀엽기도 하구요.\n남동생이 캠핑 자주 다니는데 벌써 탐내하네요.ㅎㅎㅎ\n뭐, 개인적으로 좀 실망하긴했지만,\n작은 선풍기치고는 내구성도 괜찮은 것 같고\n전반적으로 좋은 부분이 많아서 만족하는 구매에요.\n사은품으로 주신 미니선풍기도 감사해요.\n얘도 작은게 바람세기가 겁나 세네요.\n오래오래 잘 사용해볼께요^^']</t>
+          <t>['크기도 적당하고 꽤 조용합니다. 책상위에 올려놓고 쓰기도 딱 좋구요. 제가 더위를 잘타서 골랐는데 너무 만족합니다. 검은색이 있었으면 더 좋았을거 같아요</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>96.5890109539032</v>
+        <v>99.81982707977295</v>
       </c>
     </row>
     <row r="48">
@@ -1049,11 +1049,11 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>['제 서재에 에어컨 설치도 안되고, 선풍기를 가져다놓자니 공간차지 때문에 가뜩이나 복잡한 방이 더 복잡해지더라구요.보관과 휴대가 간편하면서 가볍고, 무선인 선풍기를 찾았는데 완전 딱\n제 서재에 에어컨 설치도 안되고, 선풍기를 가져다놓자니 공간차지 때문에 가뜩이나 복잡한 방이 더 복잡해지더라구요.\n보관과 휴대가 간편하면서 가볍고, 무선인 선풍기를 찾았는데 완전 딱 맘에 드는 제품이에요.\n\n완전히 접혀져서 전용 파우치에 담아두면 쓰지 않을때나 캠핑 갈때 찰떡이구요, 높이 조절에 회전까지 되고..\n리모컨 있고.. 바람 세기 조절까지 쓰기가 너무 편해요!\n무엇보다 무선이라서 이 방 저 방 필요할때마다 가볍게 옮겨다닐 수 있어서 완전 대대대 만족이에요!']</t>
+          <t>['8단선풍기인데 1단도 아주약하지 않아서 소리가 생각보다 좀 나네요. 이것 외에는 다 좋아요.\n8단선풍기인데 1단도 아주약하지 않아서 소리가 생각보다 좀 나네요. 이것 외에는 다 좋아요.']</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>92.56860017776489</v>
+        <v>58.30142498016357</v>
       </c>
     </row>
     <row r="49">
@@ -1062,11 +1062,11 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>['캠핑용 선풍기 찾다가 보만 무선 선풍기를 선택하였는데요. 받고보니 너무 좋네요~받자마자 피크닉 가면서 챙겨갔는데 접이식에 보관용 파우치까지 있어서 이동 뿐만 아니라 보관도 너무 좋\n캠핑용 선풍기 찾다가 보만 무선 선풍기를 선택하였는데요. 받고보니 너무 좋네요~\n받자마자 피크닉 가면서 챙겨갔는데 접이식에 보관용 파우치까지 있어서 이동 뿐만 아니라 보관도 너무 좋구요. 8단계까지 바람세기도 선택할 수 있는데 강력한 바람에 소음은 없어서 집에서 아기선풍기로 활용해도 좋겠더라구요. 특히 저희집은 아이들이 많이 뛰고해서 전기선에 걸려 넘어질까봐 늘 불안했는데 걱정 싹 사라졌어요. 캠핑용 야외용으로도 가정용으로도 활용성이 뛰어난 진짜 좋은 선풍기를 만나니 올 여름 왠지 든든하네요!']</t>
+          <t>['만족해요 다만 코드가 밑에 꼽게되어있어서 유무선 사용시 들고 꼽아야하는 단점이 있어요. 코드선이 측면에 있다면 더 좋았을듯 합니다\n만족해요 다만 코드가 밑에 꼽게되어있어서 유무선 사용시 들고 꼽아야하는 단점이 있어요. 코드선이 측면에 있다면 더 좋았을듯 합니다']</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>96.58877849578857</v>
+        <v>99.53644871711731</v>
       </c>
     </row>
     <row r="50">
@@ -1075,11 +1075,11 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>['세상에!착착 접히는 선풍기는 처음 봤어요!군더더기 없는 심플한 디자인부터 맘에 쏙 들었는데요폴딩도 간편하고 각도 조절도 안정적이고무선 선풍기라 일반 유선 선풍기 보다모터가 약할 거\n세상에!\n착착 접히는 선풍기는 처음 봤어요!\n군더더기 없는 심플한 디자인부터 맘에 쏙 들었는데요\n폴딩도 간편하고 각도 조절도 안정적이고\n무선 선풍기라 일반 유선 선풍기 보다\n모터가 약할 거라 생각했는데 전혀 약하지 않아서 놀랐어요\n소음도 적고요!\n폴딩 후 파우치에 딱 넣어서 보관하면 되니\n자리차지도 하지 않고 너무 좋아요\n다음주 아이와 캠핑 가기로 약속했는데 슥 들고 가려고요^^\n참! 사은품으로 보내주신 핸디 선풍기도 진짜 대박이었어요']</t>
+          <t>['조용하고 시원하네요회전도 단계가 있으면 좋겠네요그리고 충전시 어뎁터에 열이 많이 발생해서 살짝 걱이 됩니다\n조용하고 시원하네요\n회전도 단계가 있으면 좋겠네요\n그리고 충전시 어뎁터에 열이 많이 발생해서 살짝 걱이 됩니다']</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>96.58902287483215</v>
+        <v>99.38993453979492</v>
       </c>
     </row>
     <row r="51">
@@ -1088,11 +1088,11 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>['이건 사셔야합니다. 일단 가벼워서 옮기기편하고 무선이 환상입니다! 밤새 충전해놓으면 다음날 이리저리 옮기며 베란다 주방 현관..무선으로 한참사용하고! 신세계여요접어서 보관하면 부피\n이건 사셔야합니다.\n일단 가벼워서 옮기기편하고 무선이 환상입니다!\n밤새 충전해놓으면 다음날 이리저리 옮기며 베란다 주방 현관..무선으로 한참사용하고! 신세계여요\n접어서 보관하면 부피도줄고 파우치도있고, 1~8단까지인데 강풍은 아니지만 세세하게 나뉘어있고 저는 2단이 좋더라구요. 옛날 무거운선풍기 쓰시는 어머니께도 주문해드렸습니다.\n저희집도 요거로 다 바꿀예정이어요']</t>
+          <t>['주방까지 에어컨 바람이 닿지 않아 주방에 두고 사용하고 있어요 ~ 평소엔 집에서 사용하다가 야외로 놀러 나갈 땐 챙겨나가려고 미리 여름준비했네요~ 마음에 들어요!\n주방까지 에어컨 바람이 닿지 않아 주방에 두고 사용하고 있어요 ~ 평소엔 집에서 사용하다가 야외로 놀러 나갈 땐 챙겨나가려고 미리 여름준비했네요~ 마음에 들어요!']</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>96.58743143081665</v>
+        <v>97.26078510284424</v>
       </c>
     </row>
     <row r="52">
@@ -1101,11 +1101,11 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>['캠핑장에서도 집에서도 정말 유용한 제품입니다. 무선선풍기는 처음 써봤는데 이제 유선은 못쓸 것 같아요.집에서도 설거지할 때 아이 공부할 때 티비볼 때 등 이리 저리 옮겨다니기 편해\n캠핑장에서도 집에서도 정말 유용한 제품입니다.\n무선선풍기는 처음 써봤는데 이제 유선은 못쓸 것 같아요.\n집에서도 설거지할 때 아이 공부할 때 티비볼 때 등 이리 저리 옮겨다니기 편해요.\n소음이 거의 느껴지지 않을만큼 조용한데 바람은 강력해서 이거 사고 원래 집에있던 유선선풍기는 아예 쓰질 않네요;;\n멀티탭 연결해서 길게 선풍기 선이 나와있는거 정말 보기 싫었는데 마음의 평안을 찾았어요\n무조건 강추에요!']</t>
+          <t>['유무선이라 들고 다니기 간편하고 야외에서도 좋아요 가볍고 디자인도 마음에 듭니다\n유무선이라 들고 다니기 간편하고 야외에서도 좋아요 가볍고 디자인도 마음에 듭니다']</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>96.58213257789612</v>
+        <v>99.98056292533875</v>
       </c>
     </row>
     <row r="53">
@@ -1114,11 +1114,11 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>['더위를 많이 타는 가족이라 사계절 내내 선풍기를 꺼내놓고 사용하는데요.집에 있는 선풍기가 오래된거라 소음이 신경쓰여 보만 무선선풍기를 주문했어요. 보만 제품의 만족도가 큰데 이번에\n더위를 많이 타는 가족이라 사계절 내내 선풍기를 꺼내놓고 사용하는데요.\n집에 있는 선풍기가 오래된거라 소음이 신경쓰여 보만 무선선풍기를 주문했어요.\n보만 제품의 만족도가 큰데 이번에 구입한 선풍기도 너무 이쁘고, 가볍고!\n소음이 적은데다 착착 접이는 무선선풍기라 활용도가 엄청 좋네요~\n조용한데 아주 시원해요.\n다음주에 캠핑 갈 계획이라 보관 가방에 넣어 캠핑장에 가지고 가려구요.']</t>
+          <t>['매우 만족스럽습니다. 다만 소음은 일반선풍기 쓰시던 분은 무시할만한 수준, 기존에 BLDC쓰시던 분은 유선모드에서는 시끄럽게 느끼실 수도. 저는 추천합니다.\n매우 만족스럽습니다. 다만 소음은 일반선풍기 쓰시던 분은 무시할만한 수준, 기존에 BLDC쓰시던 분은 유선모드에서는 시끄럽게 느끼실 수도. 저는 추천합니다.']</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>96.58889174461365</v>
+        <v>99.79844093322754</v>
       </c>
     </row>
     <row r="54">
@@ -1127,11 +1127,11 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>['저희집 사용중인데 가볍고 무선이라, 오십견때문에 고생하시는 시어머니도 주문해드렸습니다.집에있는 옛날선풍기 다 버리고 이걸로 다 바꾸고싶다하시네요.주방아일랜드위에 올려놓으시고 잘 사\n저희집 사용중인데 가볍고 무선이라, 오십견때문에 고생하시는 시어머니도 주문해드렸습니다.\n집에있는 옛날선풍기 다 버리고 이걸로 다 바꾸고싶다하시네요.\n주방아일랜드위에 올려놓으시고 잘 사용하고 계십니다.\n가벼워서 좋고 충전도편하고 어디든 들고다닐수있고 보관용이하고.. 세상좋은 보만이어요']</t>
+          <t>['선풍기가 작은데도 바람세기도 좋고 휴대용으로 사용가능하다는것도 너무 편리하게 생각되네요.생각보다 바람소리도 덜하는것 같아서 좋아요\n선풍기가 작은데도 바람세기도 좋고 휴대용으로 사용가능하다는것도 너무 편리하게 생각되네요.\n생각보다 바람소리도 덜하는것 같아서 좋아요']</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>73.61606359481812</v>
+        <v>99.8867928981781</v>
       </c>
     </row>
     <row r="55">
@@ -1140,11 +1140,11 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>['정말 기대이상입니다. 전용가방에 넣었을때는 부피가 작은데 높이가 3단까지 조절되고10인치 7엽 선풍기라 바람이 정말 풍성하고 셉니다. 리모콘까지 되어서 편리하고요. 9단까지 바람\n정말 기대이상입니다. 전용가방에 넣었을때는 부피가 작은데 높이가 3단까지 조절되고10인치 7엽 선풍기라 바람이 정말 풍성하고 셉니다.\n리모콘까지 되어서 편리하고요. 9단까지 바람이 조절되고 타이머는 9시간 까지 설정됩니다. 자연바람까지 설정되네요. 회전도 됩니다. ㄷㄷ\n더더 대박은 충전하는동안도 사용이 가능해서 집에서는 유선 선풍기로 캠핑가서는 무선으로 여름내내 잘 사용할것 같습니다.']</t>
+          <t>['상품 자체 매우만족하고쓰고있습니다 10만원이상 선풍기 살면서 처음써봤는데 굿!\n상품 자체 매우만족하고쓰고있습니다 10만원이상 선풍기 살면서 처음써봤는데 굿!']</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>96.57194018363953</v>
+        <v>99.62775111198425</v>
       </c>
     </row>
     <row r="56">
@@ -1153,11 +1153,11 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>['사이즈가 우선 접었다 폈다가 되어서 정말 보관도 편하고요 이동할때도 좋아요 소음도 적고 디자인도 예쁘고 사용할수록 맘에 드는 선풍기랍니다 여름에 여행갈때 아주 요긴할듯 합니다아이들\n사이즈가 우선 접었다 폈다가 되어서 정말 보관도 편하고요 이동할때도 좋아요 소음도 적고 디자인도 예쁘고 사용할수록 맘에 드는 선풍기랍니다 여름에 여행갈때 아주 요긴할듯 합니다\n아이들 방에 놓아도 좋을것 같아서 하나더 구입하고 싶어요']</t>
+          <t>['아이와 함께 자는 침실 선풍기를 알아보다가 준비했어요~자연의 바람과 함께 디테일 하나하나 고급스러워서 아주 대만족이에요!\n아이와 함께 자는 침실 선풍기를 알아보다가 준비했어요~\n자연의 바람과 함께 디테일 하나하나 고급스러워서 아주 대만족이에요!']</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>84.1637909412384</v>
+        <v>99.93890523910522</v>
       </c>
     </row>
     <row r="57">
@@ -1166,11 +1166,11 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>['세밀한 바람의 세기 조절, 리모컨을 사용한 간편한 컨트롤, 다양한 상황에서 사용할 수 있는 편의성과 효율적인 사용이 가능하여 만족스럽습니다.무선으로 자유롭게 움직이며 사용할 수 있\n세밀한 바람의 세기 조절, 리모컨을 사용한 간편한 컨트롤, 다양한 상황에서 사용할 수 있는 편의성과 효율적인 사용이 가능하여 만족스럽습니다.\n\n무선으로 자유롭게 움직이며 사용할 수 있고 피크닉, 캠핑용으로 사용할 수 있는 점이 마음에 듭니다. 집이 공간이 작은 편인데 사용하지 않을 때는 접어서 보관을 할 수 있어 여름이 지난 후에 정리를 할 때도 좋을 것 같아요.\n\n공간이 작아서 두개를 사용할 필요는 없는데 사용하기 편한 크기와 각도로 설정하여 이동하기도 편하고...충전을 하고 벽걸이 또는 테이블 용으로 사용할 수 있어 너무 잘 활용하고 있어요.\n\n스탠드형이 아닌 접이식이라 내구성도 꼼꼼하게 살펴봤는데 역시 보만의 만듬새는 우수하더군요.\n\n\n일반적인 형태의 제품보다 확실하게 편의성이 뛰어나고 활용도가 높다는걸 참고하시면 될 것 같아요.']</t>
+          <t>['완전 예쁘고 깔끔하고 시원하고 다해요더위를 많이 타서 손풍기용으로 들고다니려고 했는데 솔직히 그건 힘들겠어요 ㅋㅋ 캠핑갈때 잘 쓰이겠어요 추천해요\n완전 예쁘고 깔끔하고 시원하고 다해요\n더위를 많이 타서 손풍기용으로 들고다니려고 했는데 솔직히 그건 힘들겠어요 ㅋㅋ 캠핑갈때 잘 쓰이겠어요 추천해요']</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>68.79627704620361</v>
+        <v>99.9104380607605</v>
       </c>
     </row>
     <row r="58">
@@ -1179,11 +1179,11 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>['일반선풍기 찾아보다가 발견하고 구매했어요.작고 소음도 없는 편이라고 해서요.음..근데 생각보다 소음이 좀 있네요.ㅠ.ㅠ이건 개인차가 있지만 1로 해도 저에게는 좀 거슬리네요.저는\n일반선풍기 찾아보다가 발견하고 구매했어요.\n작고 소음도 없는 편이라고 해서요.\n음..근데 생각보다 소음이 좀 있네요.ㅠ.ㅠ\n이건 개인차가 있지만 1로 해도 저에게는 좀 거슬리네요.\n저는 캠핑용이라 아니라 제 방에서 사용할꺼라..\n세기를 1정도하면 초미풍처럼 아주 조용할 줄 알았거든요.\n아무튼 부피는 작아도 겁나 바람이 센데다\n바람세기 정도가 10까지 있어요.\n그리고 회전하니 진짜 몸통까지 다 돌아가네요.\n후기보고 어떤 느낌인가했는데, 이런거군요.ㅎㅎㅎ\n디자인은 참 이쁘고 세련됐어요.\n보관도 컴팩트하게 할 수 있어서 좋기도하구요.\n안방 선풍기와 비교했더니 미니하고 귀엽기도 하구요.\n남동생이 캠핑 자주 다니는데 벌써 탐내하네요.ㅎㅎㅎ\n뭐, 개인적으로 좀 실망하긴했지만,\n작은 선풍기치고는 내구성도 괜찮은 것 같고\n전반적으로 좋은 부분이 많아서 만족하는 구매에요.\n사은품으로 주신 미니선풍기도 감사해요.\n얘도 작은게 바람세기가 겁나 세네요.\n오래오래 잘 사용해볼께요^^']</t>
+          <t>['바람세기는 강한편인데 크기가 많이 작네요..아기 선풍기 글자를 못보고;;;;;;;;;\n바람세기는 강한편인데 크기가 많이 작네요..아기 선풍기 글자를 못보고;;;;;;;;;']</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>96.5890109539032</v>
+        <v>61.66160106658936</v>
       </c>
     </row>
     <row r="59">
@@ -1192,11 +1192,11 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>['제 서재에 에어컨 설치도 안되고, 선풍기를 가져다놓자니 공간차지 때문에 가뜩이나 복잡한 방이 더 복잡해지더라구요.보관과 휴대가 간편하면서 가볍고, 무선인 선풍기를 찾았는데 완전 딱\n제 서재에 에어컨 설치도 안되고, 선풍기를 가져다놓자니 공간차지 때문에 가뜩이나 복잡한 방이 더 복잡해지더라구요.\n보관과 휴대가 간편하면서 가볍고, 무선인 선풍기를 찾았는데 완전 딱 맘에 드는 제품이에요.\n\n완전히 접혀져서 전용 파우치에 담아두면 쓰지 않을때나 캠핑 갈때 찰떡이구요, 높이 조절에 회전까지 되고..\n리모컨 있고.. 바람 세기 조절까지 쓰기가 너무 편해요!\n무엇보다 무선이라서 이 방 저 방 필요할때마다 가볍게 옮겨다닐 수 있어서 완전 대대대 만족이에요!']</t>
+          <t>['사이즈 체크를 안해서 처음에 작아서 놀라긴 했지만 깔끔하고 맘에 들어요~\n사이즈 체크를 안해서 처음에 작아서 놀라긴 했지만 깔끔하고 맘에 들어요~']</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>92.56860017776489</v>
+        <v>99.45405125617981</v>
       </c>
     </row>
     <row r="60">
@@ -1205,11 +1205,11 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>['캠핑용 선풍기 찾다가 보만 무선 선풍기를 선택하였는데요. 받고보니 너무 좋네요~받자마자 피크닉 가면서 챙겨갔는데 접이식에 보관용 파우치까지 있어서 이동 뿐만 아니라 보관도 너무 좋\n캠핑용 선풍기 찾다가 보만 무선 선풍기를 선택하였는데요. 받고보니 너무 좋네요~\n받자마자 피크닉 가면서 챙겨갔는데 접이식에 보관용 파우치까지 있어서 이동 뿐만 아니라 보관도 너무 좋구요. 8단계까지 바람세기도 선택할 수 있는데 강력한 바람에 소음은 없어서 집에서 아기선풍기로 활용해도 좋겠더라구요. 특히 저희집은 아이들이 많이 뛰고해서 전기선에 걸려 넘어질까봐 늘 불안했는데 걱정 싹 사라졌어요. 캠핑용 야외용으로도 가정용으로도 활용성이 뛰어난 진짜 좋은 선풍기를 만나니 올 여름 왠지 든든하네요!']</t>
+          <t>['가볍고 사용법도 간단하네요기존에 있던 서큘레이터에 비하면소음도 작아요\n가볍고 사용법도 간단하네요\n기존에 있던 서큘레이터에 비하면\n소음도 작아요']</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>96.58877849578857</v>
+        <v>88.37225437164307</v>
       </c>
     </row>
     <row r="61">
@@ -1218,11 +1218,11 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>['세상에!착착 접히는 선풍기는 처음 봤어요!군더더기 없는 심플한 디자인부터 맘에 쏙 들었는데요폴딩도 간편하고 각도 조절도 안정적이고무선 선풍기라 일반 유선 선풍기 보다모터가 약할 거\n세상에!\n착착 접히는 선풍기는 처음 봤어요!\n군더더기 없는 심플한 디자인부터 맘에 쏙 들었는데요\n폴딩도 간편하고 각도 조절도 안정적이고\n무선 선풍기라 일반 유선 선풍기 보다\n모터가 약할 거라 생각했는데 전혀 약하지 않아서 놀랐어요\n소음도 적고요!\n폴딩 후 파우치에 딱 넣어서 보관하면 되니\n자리차지도 하지 않고 너무 좋아요\n다음주 아이와 캠핑 가기로 약속했는데 슥 들고 가려고요^^\n참! 사은품으로 보내주신 핸디 선풍기도 진짜 대박이었어요']</t>
+          <t>['가볍고 아담해서 집안에서도 집밖에서도 사용하기 좋아요캠핑용으로 쓸 때도 높이 조절이 돼서 다른 캠핑 선풍기보다 활용도가 높을 것 같아서 하나 있으면 두루두루 잘 쓸 것 같아요\n가볍고 아담해서 집안에서도 집밖에서도 사용하기 좋아요\n캠핑용으로 쓸 때도 높이 조절이 돼서 다른 캠핑 선풍기보다 활용도가 높을 것 같아서 하나 있으면 두루두루 잘 쓸 것 같아요']</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>96.58902287483215</v>
+        <v>99.94010329246521</v>
       </c>
     </row>
     <row r="62">
@@ -1231,11 +1231,11 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>['이건 사셔야합니다. 일단 가벼워서 옮기기편하고 무선이 환상입니다! 밤새 충전해놓으면 다음날 이리저리 옮기며 베란다 주방 현관..무선으로 한참사용하고! 신세계여요접어서 보관하면 부피\n이건 사셔야합니다.\n일단 가벼워서 옮기기편하고 무선이 환상입니다!\n밤새 충전해놓으면 다음날 이리저리 옮기며 베란다 주방 현관..무선으로 한참사용하고! 신세계여요\n접어서 보관하면 부피도줄고 파우치도있고, 1~8단까지인데 강풍은 아니지만 세세하게 나뉘어있고 저는 2단이 좋더라구요. 옛날 무거운선풍기 쓰시는 어머니께도 주문해드렸습니다.\n저희집도 요거로 다 바꿀예정이어요']</t>
+          <t>['가볍고 이동성 좋아요다만 리모컨 거치대가 없어 약 간 불편해요\n가볍고 이동성 좋아요\n다만 리모컨 거치대가 없어 약 간 불편해요']</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>96.58743143081665</v>
+        <v>88.54635953903198</v>
       </c>
     </row>
     <row r="63">
@@ -1244,11 +1244,11 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>['캠핑장에서도 집에서도 정말 유용한 제품입니다. 무선선풍기는 처음 써봤는데 이제 유선은 못쓸 것 같아요.집에서도 설거지할 때 아이 공부할 때 티비볼 때 등 이리 저리 옮겨다니기 편해\n캠핑장에서도 집에서도 정말 유용한 제품입니다.\n무선선풍기는 처음 써봤는데 이제 유선은 못쓸 것 같아요.\n집에서도 설거지할 때 아이 공부할 때 티비볼 때 등 이리 저리 옮겨다니기 편해요.\n소음이 거의 느껴지지 않을만큼 조용한데 바람은 강력해서 이거 사고 원래 집에있던 유선선풍기는 아예 쓰질 않네요;;\n멀티탭 연결해서 길게 선풍기 선이 나와있는거 정말 보기 싫었는데 마음의 평안을 찾았어요\n무조건 강추에요!']</t>
+          <t>['소음도 적고, 접이식이라 보관하기 편하고, 디자인도 작고 이쁨 강추\n소음도 적고, 접이식이라 보관하기 편하고, 디자인도 작고 이쁨 강추']</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>96.58213257789612</v>
+        <v>99.95827078819275</v>
       </c>
     </row>
     <row r="64">
@@ -1257,11 +1257,11 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>['더위를 많이 타는 가족이라 사계절 내내 선풍기를 꺼내놓고 사용하는데요.집에 있는 선풍기가 오래된거라 소음이 신경쓰여 보만 무선선풍기를 주문했어요. 보만 제품의 만족도가 큰데 이번에\n더위를 많이 타는 가족이라 사계절 내내 선풍기를 꺼내놓고 사용하는데요.\n집에 있는 선풍기가 오래된거라 소음이 신경쓰여 보만 무선선풍기를 주문했어요.\n보만 제품의 만족도가 큰데 이번에 구입한 선풍기도 너무 이쁘고, 가볍고!\n소음이 적은데다 착착 접이는 무선선풍기라 활용도가 엄청 좋네요~\n조용한데 아주 시원해요.\n다음주에 캠핑 갈 계획이라 보관 가방에 넣어 캠핑장에 가지고 가려구요.']</t>
+          <t>['여러제품 비교하다가 구매했습니다.높낮이조절,배터리양 표시,리모컨조절,무선제가 생각했던 모든 기능이 다 있습니다.작고 귀엽네요!\n여러제품 비교하다가 구매했습니다.\n높낮이조절,배터리양 표시,리모컨조절,무선\n제가 생각했던 모든 기능이 다 있습니다.\n작고 귀엽네요!']</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>96.58889174461365</v>
+        <v>97.74217009544373</v>
       </c>
     </row>
     <row r="65">
@@ -1270,11 +1270,11 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>['저희집 사용중인데 가볍고 무선이라, 오십견때문에 고생하시는 시어머니도 주문해드렸습니다.집에있는 옛날선풍기 다 버리고 이걸로 다 바꾸고싶다하시네요.주방아일랜드위에 올려놓으시고 잘 사\n저희집 사용중인데 가볍고 무선이라, 오십견때문에 고생하시는 시어머니도 주문해드렸습니다.\n집에있는 옛날선풍기 다 버리고 이걸로 다 바꾸고싶다하시네요.\n주방아일랜드위에 올려놓으시고 잘 사용하고 계십니다.\n가벼워서 좋고 충전도편하고 어디든 들고다닐수있고 보관용이하고.. 세상좋은 보만이어요']</t>
+          <t>['고르고 골라 모든 기능의 집결체팬이 생각보다 작지만 만족합니다!!\n고르고 골라 모든 기능의 집결체\n팬이 생각보다 작지만 만족합니다!!']</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>73.61606359481812</v>
+        <v>97.7726936340332</v>
       </c>
     </row>
     <row r="66">
@@ -1283,11 +1283,11 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>['정말 기대이상입니다. 전용가방에 넣었을때는 부피가 작은데 높이가 3단까지 조절되고10인치 7엽 선풍기라 바람이 정말 풍성하고 셉니다. 리모콘까지 되어서 편리하고요. 9단까지 바람\n정말 기대이상입니다. 전용가방에 넣었을때는 부피가 작은데 높이가 3단까지 조절되고10인치 7엽 선풍기라 바람이 정말 풍성하고 셉니다.\n리모콘까지 되어서 편리하고요. 9단까지 바람이 조절되고 타이머는 9시간 까지 설정됩니다. 자연바람까지 설정되네요. 회전도 됩니다. ㄷㄷ\n더더 대박은 충전하는동안도 사용이 가능해서 집에서는 유선 선풍기로 캠핑가서는 무선으로 여름내내 잘 사용할것 같습니다.']</t>
+          <t>['작지만 성능 좋구요 소음 만족,일단 부피가 작고 보관하기 좋아요\n작지만 성능 좋구요 소음 만족,일단 부피가 작고 보관하기 좋아요']</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>96.57194018363953</v>
+        <v>99.6276319026947</v>
       </c>
     </row>
     <row r="67">
@@ -1296,11 +1296,726 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>['사이즈가 우선 접었다 폈다가 되어서 정말 보관도 편하고요 이동할때도 좋아요 소음도 적고 디자인도 예쁘고 사용할수록 맘에 드는 선풍기랍니다 여름에 여행갈때 아주 요긴할듯 합니다아이들\n사이즈가 우선 접었다 폈다가 되어서 정말 보관도 편하고요 이동할때도 좋아요 소음도 적고 디자인도 예쁘고 사용할수록 맘에 드는 선풍기랍니다 여름에 여행갈때 아주 요긴할듯 합니다\n아이들 방에 놓아도 좋을것 같아서 하나더 구입하고 싶어요']</t>
+          <t>['디자인 좋고 리모컨이 본체에 자석으로 붙어서 너무 편리하네요^^\n디자인 좋고 리모컨이 본체에 자석으로 붙어서 너무 편리하네요^^']</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>84.1637909412384</v>
+        <v>99.86898899078369</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>['무선이라 정말 편하네요ㅡ더군다나 보관방법이 획기적입니다^^\n무선이라 정말 편하네요ㅡ\n더군다나 보관방법이 획기적입니다^^']</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>96.87216281890869</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>['실제 받아보고 나니 일반 선풍기 보다 사이즈는 작습니다. 다만 너무 이뻐요. 정말 이뻐요. 아! 그리고 선풍기 회전할때 날개부분이 돌아가는게 아닌 몸통 전체가 회전해요 ㅋㅋㅋ\n실제 받아보고 나니 일반 선풍기 보다 사이즈는 작습니다. 다만 너무 이뻐요. 정말 이뻐요. 아! 그리고 선풍기 회전할때 날개부분이 돌아가는게 아닌 몸통 전체가 회전해요 ㅋㅋㅋ']</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>90.00675678253174</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>['무선이라 편하게 들고 필요한곳에서 쓸 수 있어서 너무 좋아요 무선 선풍기 처음인데 신세계네요\n무선이라 편하게 들고 필요한곳에서 쓸 수 있어서 너무 좋아요 무선 선풍기 처음인데 신세계네요']</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>99.74663257598877</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>['선풍기 조금 작긴한데 조용해서 좋네요 휴대가능하고 이뻐요\n선풍기 조금 작긴한데 조용해서 좋네요 휴대가능하고 이뻐요']</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>99.29955005645752</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>['작고 무선이고 너무 디자인도 좋네요캠핑갈때도 딱이겠어요!!\n작고 무선이고 너무 디자인도 좋네요\n캠핑갈때도 딱이겠어요!!']</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>99.28373098373413</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>['일단 휴대도 간편하고 바람도 세서 좋아요. 아주 만족합니다\n일단 휴대도 간편하고 바람도 세서 좋아요. 아주 만족합니다']</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>99.82637763023376</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>['이쁘고 가볍고 무선되고 조용하고 모든 게 다 좋은거같아요!\n이쁘고 가볍고 무선되고 조용하고 모든 게 다 좋은거같아요!']</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>99.35857057571411</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>['생각보다 작은데 시원하고 간편하고~회전으로 해놔도 시원해요ㅎㅎ고민끝에 주문했는데 100프로 만족합니다\n생각보다 작은데 시원하고 간편하고~\n회전으로 해놔도 시원해요ㅎㅎ고민끝에 주문했는데 100프로 만족합니다']</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>99.99024271965027</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>['가정용으로는 조금 작지만 아이 방에 놓긴 괜찮아요바람도 쌔고 좋네요 사은품도 너무 조아요\n가정용으로는 조금 작지만 아이 방에 놓긴 괜찮아요\n바람도 쌔고 좋네요 사은품도 너무 조아요']</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>99.58345293998718</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>['접히는것 편리하고 무선이라 좋고 바람세기도 적당합니다!\n접히는것 편리하고 무선이라 좋고 바람세기도 적당합니다!']</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>99.6824324131012</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>['아주 편리하게 사용합니다.그런데 약간 소음이 크긴해요.\n아주 편리하게 사용합니다.\n그런데 약간 소음이 크긴해요.']</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>99.53221082687378</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>['슬림하지만 시원해요\n팬의 크기가 작아 시원하지 않을까 걱정했는데 8단계까지라 풍량 조절도 잘되고 시원하네요. 무선형에 리모컨까지 강추합니다.']</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>99.15186762809753</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>['보관하기에도 아주 간편하고 컴팩트한 사이즈만 바람은 왠만한 사이즈의 선풍기와 견주어봐도 밀리지 않아요~!\n보관하기에도 아주 간편하고 컴팩트한 사이즈만 바람은 왠만한 사이즈의 선풍기와 견주어봐도 밀리지 않아요~!']</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>99.99606013298035</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>['귀엽고 앙증맞고, 휴대성이 좋아 휴가갈때 같이 갑니다~\n귀엽고 앙증맞고, 휴대성이 좋아 휴가갈때 같이 갑니다~']</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>99.77227449417114</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>['침대에서 사용하기에 낮게 높이 조절 되는게 좋습니다.\n침대에서 사용하기에 낮게 높이 조절 되는게 좋습니다.']</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>98.48484396934509</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>['빠른배송 잘 받았습니다. 제품도 이상없이 작동하네요!\n빠른배송 잘 받았습니다. 제품도 이상없이 작동하네요!']</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>94.04475688934326</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>['접이식이라 편리하고 무선이라 좋아요~ 원룸에서 사용하려고 구매했는데 작고 귀엽네요~\n접이식이라 편리하고 무선이라 좋아요~ 원룸에서 사용하려고 구매했는데 작고 귀엽네요~']</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>99.91965293884277</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>['캠핑가서 너무 잘쓰고 집에서도 매일 쓰는 중이에요!\n캠핑가서 너무 잘쓰고\n집에서도 매일 쓰는 중이에요!']</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>99.957275390625</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>['무선이라 휴대성도 좋고 풍량도 8단으로 시원하네요.\n무선이라 휴대성도 좋고 풍량도 8단으로 시원하네요.']</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>99.76963400840759</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>['주방용으로 구입\n음식할때 더워서 무선.접이식으로 구매 시원합니다']</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>99.86029863357544</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>['가볍고 좋네요 아이가 들고다니면서\n가볍고 좋네요 아이가 들고다니면서 쓰고 있어요']</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>98.92880916595459</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>['생각보다 충전이 오래가서 좋고 편리합니다!!\n생각보다 충전이 오래가서 좋고 편리합니다!!']</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>99.73222613334656</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>['좋습니다. 튼튼하고 성능좋고 너무 편해요\n좋습니다. 튼튼하고 성능좋고 너무 편해요']</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>99.87984895706177</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>['포장부터 상품성까지 모두 마음에 들어요\n포장부터 상품성까지 모두 마음에 들어요']</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>97.67968058586121</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>['전선이 없고 이동이 자유로워 너무좋네요\n전선이 없고 이동이 자유로워 너무좋네요']</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>92.88630485534668</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>['가볍고 무선으로 쓸 수 있어서 좋습니다\n가볍고 무선으로 쓸 수 있어서 좋습니다']</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>98.85651469230652</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>['가볍고 보관도 용이하고 마음에 듭니다.\n가볍고 보관도 용이하고 마음에 듭니다.']</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>99.96757507324219</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>['가볍고 바람세기도 딱 적당하고 좋아요\n가볍고 바람세기도 딱 적당하고 좋아요']</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>98.68850111961365</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>['휴대하기 편리하고 성능도 좋습니다~!\n휴대하기 편리하고 성능도 좋습니다~!']</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>99.97918009757996</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>['바람도세고수납이 간편해서 엄지척^^\n바람도세고수납이 간편해서 엄지척^^']</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>99.49833750724792</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>['잘돌아가네요 접히는것도 좋습니다\n잘돌아가네요 접히는것도 좋습니다']</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>95.15030384063721</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>['배송도 빠르고 저렴하게 잘삿어요\n배송도 빠르고 저렴하게 잘삿어요']</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>99.88758563995361</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>['배송도빠르고 상품도 만족합니다\n배송도빠르고 상품도 만족합니다']</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>97.53391742706299</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>['생각보다 귀여워요 고장 안나길..\n생각보다 귀여워요 고장 안나길..']</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>95.23833990097046</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>['가격 대비 성능이 너무 좋아요\n가격 대비 성능이 너무 좋아요']</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>99.23385977745056</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>['작지만 강하고 소음 진짜적음\n작지만 강하고 소음 진짜적음']</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>73.24236035346985</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>['쓸수록 잘샀다고 생각합니다\n쓸수록 잘샀다고 생각합니다']</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>94.15245652198792</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>['휴대하기 편하고 시원합니다\n휴대하기 편하고 시원합니다']</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>99.78276491165161</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>['선이 좀 짧긴 하지만 좋아요\n선이 좀 짧긴 하지만 좋아요']</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>97.63492941856384</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>['간편하게 이동하기 좋아요\n간편하게 이동하기 좋아요']</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>99.95661377906799</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>['만족하는편 나쁘지 않음\n만족하는편 나쁘지 않음']</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>97.07276821136475</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>['작고 시원하고 이뻐요!!\n작고 시원하고 이뻐요!!']</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>97.17187285423279</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>['상품 퀼리티 좋습니다^^\n상품 퀼리티 좋습니다^^']</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>51.54598951339722</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>['휴대성좋고 조용합니다\n휴대성좋고 조용합니다']</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>98.89234304428101</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>['다음에 또 구매할게요\n다음에 또 구매할게요']</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>97.35393524169922</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>['잘쓰겠습니다 좋아이\n잘쓰겠습니다 좋아이']</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>98.79509210586548</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>['작고 안방에서 사용하기 좋은데 소음이 작지는 않아밤이나 새벽에 작동 시 소음이 걸리네요...\n작고 안방에서 사용하기 좋은데 소음이 작지는 않아\n밤이나 새벽에 작동 시 소음이 걸리네요...']</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>98.6530065536499</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>['사이즈가 작은 편이고 작고 귀엽습니다보관도 용이하고 너무 간편해서 좋습니다\n사이즈가 작은 편이고 작고 귀엽습니다\n보관도 용이하고 너무 간편해서 좋습니다']</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>99.99454617500305</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>['배송도빠르고 제품도 너무좋네요. 귀여운 미니 휴대용 선풍기도 감사합니다^^\n배송도빠르고 제품도 너무좋네요. 귀여운 미니 휴대용 선풍기도 감사합니다^^']</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>99.94586706161499</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>['아주 잘 사용하고 있써요 편하고 일할때 옮겨 사하기 정말 편하네요\n아주 잘 사용하고 있써요 편하고 일할때 옮겨 사하기 정말 편하네요']</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>99.56976771354675</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>['배송이 엄청 빨라서 좋고,사은품도 땡큐.\n배송이 엄청 빨라서 좋고,사은품도 땡큐.']</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>99.69149231910706</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>['빠르고 안전한 배송에 감사합니다.\n빠르고 안전한 배송에 감사합니다.']</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>99.78360533714294</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>['넘 좋아용 시원시온 짱짱 ㅎㅎㅎ!\n넘 좋아용 시원시온 짱짱 ㅎㅎㅎ!']</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>99.99001622200012</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>['휴대성 좋고 무선이라 집에서도 야외에서도 이동이 간편해서 좋아요.집에서도 캠핑가서도 두고두고 잘 쓸 수 있을 것 같아요.\n휴대성 좋고 무선이라 집에서도 야외에서도 이동이 간편해서 좋아요.\n집에서도 캠핑가서도 두고두고 잘 쓸 수 있을 것 같아요.']</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>99.99654293060303</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>['캠핑용으로 샀어요무선으로도 이용가능하고충전하며 유선으로도 가능하다해서샀어요 좋아요 맘에 들어요^^\n캠핑용으로 샀어요\n무선으로도 이용가능하고\n충전하며 유선으로도 가능하다해서\n샀어요 좋아요 맘에 들어요^^']</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>99.98400807380676</v>
       </c>
     </row>
   </sheetData>

--- a/shop_emotion/신제품보만 BF1126C_positive.xlsx
+++ b/shop_emotion/신제품보만 BF1126C_positive.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C122"/>
+  <dimension ref="A1:C142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,7 +455,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>92.79813170433044</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="3">
@@ -468,7 +468,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>89.1167938709259</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="4">
@@ -481,7 +481,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>99.92257952690125</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="5">
@@ -494,7 +494,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>99.97953772544861</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="6">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>99.92706179618835</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="7">
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>96.93773984909058</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="8">
@@ -529,11 +529,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>['선풍기 사계절 내내 잘 사용하는 편인데요. 사용하지 않을 때는 컴팩트하게 보관할 수 있으면서 캠핑갈 때도 사용할 수 있는 선풍기 찾다가 보만 무선선풍기를 장만했어요~ 접이식이라서\n선풍기 사계절 내내 잘 사용하는 편인데요. 사용하지 않을 때는 컴팩트하게 보관할 수 있으면서 캠핑갈 때도 사용할 수 있는 선</t>
+          <t>['선풍기 사계절 내내 잘 사용하는 편인데요. 사용하지 않을 때는 컴팩트하게 보관할 수 있으면서 캠핑갈 때도 사용할 수 있는 선풍기 찾다가 보만 무선선풍기를 장만했어요~ 접이식이라서\n선풍기 사계절 내내 잘 사용하는 편인데요. 사용하지 않을 때는 컴팩트하게 보관할 수 있으면서 캠핑갈 때도 사용할 수 있는 선풍기 찾다가 보만 무선선풍기를 장만했어요~ 접이식이라서 높</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>99.8570442199707</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="9">
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>79.18835282325745</v>
+        <v>3.9</v>
       </c>
     </row>
     <row r="10">
@@ -555,11 +555,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>['그냥 거의 배송이;; 쿠팡 로켓배송보다 빠르신거같아요..;; 어제시켰는데 오늘 받았구용 ㅎㅎ뭐 물건은 말해 뭐합니까 ㅎㅎㅎ 유선/무선 겸용으로 사용가능하구바람단계 8단계에 그냥 하\n그냥 거의 배송이;; 쿠팡 로켓배송보다 빠르신거같아요..;; 어제시켰는데 오늘 받았구용 ㅎㅎ\n뭐 물건은 말해 뭐합니까 ㅎㅎㅎ\n유선/무선 겸용으로 사용가능하구\n바람단계 8단계에 그냥 하나같이 완벽 합니당\n다른데꺼랑 비교 좀 해보고 삿는데 그래도 역시 이름 있는데꺼가 좋겠지 싶어서 제가 처음에 살려고 생각한 가격대에서 몇배나 뛰어도 그냥 구매했는데 ㅎㅎㅎ 특히 제가 회전되는거 찾고있었는데ㅠㅠㅠ너무 조씁니다\n근데 생각지 못하게 ㅋㅋㅋ 본체가 회전해서 깜짝 놀랬는데 그래서 _&lt; 포장도 잘되서 왔고 제일 기부니 좋았던건 미니선풍기.. 감덩.. ♥️ 많이 파세요\n주변에서 누군가가 캠핑용 서큘레이터 찾는다하면 추천할거가테용 ㅎㅎ 많이파세요!!']</t>
+          <t>['그냥 거의 배송이;; 쿠팡 로켓배송보다 빠르신거같아요..;; 어제시켰는데 오늘 받았구용 ㅎㅎ뭐 물건은 말해 뭐합니까 ㅎㅎㅎ 유선/무선 겸용으로 사용가능하구바람단계 8단계에 그냥 하\n그냥 거의 배송이;; 쿠팡 로켓배송보다 빠르신거같아요..;; 어제시켰는데 오늘 받았구용 ㅎㅎ\n뭐 물건은 말해 뭐합니까 ㅎㅎㅎ\n유선/무선 겸용으로 사용가능하구\n바람단계 8단계에 그냥 하나같이 완벽 합니당\n다른데꺼랑 비교 좀 해보고 삿는데 그래도 역시 이름 있는데꺼가 좋겠지 싶어서 제가 처음에 살려고 생각한 가격대에서 몇배나 뛰어도 그냥 구매했는데 ㅎㅎㅎ 특히 제가 회전되는거 찾고있었는데ㅠㅠㅠ너무 조씁니다\n근데 생각지 못하게 ㅋㅋㅋ 본체가 회전해서 깜짝 놀랬는데 그래서 _&lt; 포장도 잘되서 왔고 제일 기부니 좋았던건 미니선풍기.. 감덩.. ♥️ 많이 파</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>99.83607530593872</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="11">
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>99.99864101409912</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="12">
@@ -585,7 +585,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>99.9895453453064</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="13">
@@ -598,7 +598,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>98.73388409614563</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="14">
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>80.29012680053711</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -620,11 +620,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>['정말 기대이상입니다. 전용가방에 넣었을때는 부피가 작은데 높이가 3단까지 조절되고10인치 7엽 선풍기라 바람이 정말 풍성하고 셉니다. 리모콘까지 되어서 편리하고요. 9단까지 바람\n정말 기대이상입니다. 전용가방에 넣었을때는 부피가 작은데 높이가 3단까지 조절되고10인치 7엽 선풍기라 바람이 정말 풍성하고 셉니다.\n리모콘까지 되어서 편리하고요. 9단까지 바람이 조절되고 타이머는 9시간 까지 설정됩니다. 자연바람까지 설정되네요. 회전도 됩니다. ㄷㄷ\n더더 대박은 충전하는동안도 사용이 가능해서 집에서는 유선 선풍기로 캠핑가서는 무선으로 여름내내 잘 사용할것 같습니다.']</t>
+          <t>['정말 기대이상입니다. 전용가방에 넣었을때는 부피가 작은데 높이가 3단까지 조절되고10인치 7엽 선풍기라 바람이 정말 풍성하고 셉니다. 리모콘까지 되어서 편리하고요. 9단까지 바람\n정말 기대이상입니다. 전용가방에 넣었을때는 부피가 작은데 높이가 3단까지 조절되고10인치 7엽 선풍기라 바람이 정말 풍성하고 셉니다.\n리모콘까지 되어서 편리하고요. 9단까지 바람이 조절되고 타이머는 9시간 까지 설정됩니다. 자연바람까지 설정되네요. 회전도 됩니다. ㄷㄷ\n더더 대박은 충전하는동안도 사용이</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>99.91962313652039</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="16">
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>99.87705945968628</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="17">
@@ -650,7 +650,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>99.96234774589539</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="18">
@@ -663,7 +663,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>99.86569285392761</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="19">
@@ -676,7 +676,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>98.56909513473511</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="20">
@@ -685,11 +685,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>['집에 도착하자마자 언박싱하고 부모님 퇴근 후 자랑했습니다 ㅋㅋ 디자인 너무 예쁘고 가볍고, 거기에 무선이라니 진짜 너무 좋아요. 평소에는 꽂아두고 사용하다가 전원선을 뽑아도 작동이\n집에 도착하자마자 언</t>
+          <t>['집에 도착하자마자 언박싱하고 부모님 퇴근 후 자랑했습니다 ㅋㅋ 디자인 너무 예쁘고 가볍고, 거기에 무선이라니 진짜 너무 좋아요. 평소에는 꽂아두고 사용하다가 전원선을 뽑아도 작동이\n집에 도착하자마자 언박싱하고 부모님 퇴근 후 자랑했습니다 ㅋㅋ 디자인 너무 예쁘고 가볍고, 거기에 무선이라니 진짜 너무 좋아요. 평소에는 꽂아두고 사용하다가 전원선을 뽑아도 작동이 되니까 누워서 바람 직빵으로 맞을 수 있다는 점이 최고였습니다. 접이식인 거 보여주고, 선을 딱 뽑았는데도 작동되는 걸 아버지 보여드리니 ㅇ0ㅇ이표정됨ㅋㅋㅋ BLDC 모터라 더 마음에 듭니다. 리모컨도 있어서 캠핑 다닐 때 쓰면 딱</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>99.90923404693604</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="21">
@@ -702,7 +702,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>91.27518534660339</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="22">
@@ -715,7 +715,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>99.25179481506348</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="23">
@@ -724,11 +724,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>['일단 바람이 다른선풍기와는 차원이 다르게 시원해요 에어컨 튼거마냥 시원해요 그리고 키높이가 조절되니까 제일.낮게해서 아기옷장위에 올려서 틀어주고 해요 유</t>
+          <t>['일단 바람이 다른선풍기와는 차원이 다르게 시원해요 에어컨 튼거마냥 시원해요 그리고 키높이가 조절되니까 제일.낮게해서 아기옷장위에 올려서 틀어주고 해요 유선무선 다 가능하고 타이머기\n일</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>96.66627645492554</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="24">
@@ -741,7 +741,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>99.87218976020813</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="25">
@@ -754,7 +754,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>98.43526482582092</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="26">
@@ -763,11 +763,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>['배송빠르게 잘받앗습니다. 사은품도 잘쓸게요.초미풍에 소음이 잇다는건 틀어보니 무슨말인지알겠고 예민하신 분들은 잘때 틀어놓긴 거슬릴것같은데 저는 서큘레이터로 쓰려고 사서 소음은 상관\n배송빠르게 잘받앗습니다. 사은품도 잘쓸게요.\n초미풍에 소음이 잇다는건 틀어보니 무슨말인지알겠고 예민하신 분들은 잘때 틀어놓긴 거슬릴것같은데 저는 서큘레이터로 쓰려고 사서 소음은 상관없을거같네요. 접이식이라 다양하게 쓸수잇어서 좋네요. 리모컨이 스티로폴박스 사이에 잇어서 하마터면 버릴뻔ㅋ 잘쓸게요']</t>
+          <t>['배송빠르게 잘받앗습니다. 사은품도 잘쓸게요.초미풍에 소음이 잇다는건 틀어보니 무슨말인지알겠고 예민하신 분들은 잘때 틀어놓긴 거슬릴것같은데 저는 서큘레이터로 쓰려고 사서 소음은 상관\n배송빠르게 잘받앗습니다. 사은품도 잘쓸게요.\n초미풍에 소음이 잇다는건 틀어보니 무슨말인지알겠고 예민하신 분들은 잘때 틀어놓긴 거슬릴것같은데 저는 서큘레이터로 쓰려고 사서 소음은 상관없을거같네요. 접이식이라 다양하게 쓸수잇어서 좋네요. 리모컨이 스티로폴</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>98.99058938026428</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="27">
@@ -780,7 +780,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>99.96863007545471</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="28">
@@ -789,11 +789,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>['우선 시원하고 수납성은 좋습니다.근데.. 1단계 및 자연풍이 너무 쎕니다.특히 1단계 및 자연풍때도 펜소음이 커서원래쓰던 브리즈킹 제품으로 옮겨 놓았어요무소음은 아닙니다. 생각보다\n우선 시원하고 수납성은 좋습니다.\n근데.. 1단계 및 자연풍이 너무 쎕니다.\n특히 1단계 및 자연풍때도 펜소음이 커서\n원래쓰던 브리즈킹 제품으로 옮겨 놓았어요\n무소음은 아닙니다. 생각보다 소음 있고 아기 한테 하시려면 먼 곳에 갔다 놓고 쓰셔야겠네요.\n.']</t>
+          <t>['작고 가벼워서 이동하기 너무 편리합니다. 디자인도 깔끔해서 맘에들어요 그리고 생각보다 시원하고 회전각도도 많이 돌아가서 정말 잘산거같아요 여름 지나서 보관하기도 너무 컴팩트하고 최\n작고 가벼워서 이동하기 너무 편리합니다. 디자인도 깔끔해서 맘에들어요 그리고 생각보다 시원하고 회전각도도 많이 돌아가서 정말 잘산거같아요 여름 지나서 보관하기도 너무 컴팩트하고 최근들어서 한 쇼핑중에 제일 맘에들어요!']</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>56.15257620811462</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="29">
@@ -802,11 +802,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>['작고 가벼워서 이동하기 너무 편리합니다. 디자인도 깔끔해서 맘에들어요 그리고 생각보다 시원하고 회전각도도 많이 돌아가서 정말 잘산거같아요 여름 지나서 보관하기도 너무 컴팩트하고 최\n작고 가벼워서 이동하기 너무 편리합니다</t>
+          <t>['날이 점점 더워서 휴대용 큰사이즈선풍기 찾다가 주문했는데 실제로받아보니 완전 큼직하구 바람도 강해서너무 좋아요!각도 조절,높이 조절도 내맘대로 되고 걸어 써도 되니까 편해요야외에\n날이 점점 더워서 휴대용 큰사이즈\n선풍기 찾다가 주문했는데 실제로\n받아보니 완전 큼직하구 바람도 강해서\n너무 좋아요!\n각도 조절,높이 조절도 내맘대로 되고\n걸</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>99.91916418075562</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="30">
@@ -815,11 +815,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>['날이 점점 더워서 휴대용 큰사이즈선풍기 찾다가 주문했는데 실제로받아보니 완전 큼직하구 바람도 강해서너무 좋아요!각도 조절,높이 조절도 내맘대로 되고 걸어 써도 되니까 편해요야외에\n날이 점점 더워서 휴대용 큰사이즈\n선풍기 찾다가 주문했는데 실제로\n받아보니 완전 큼직하구 바람도 강해서\n너무 좋아요!\n각도 조절,높이 조절도 내맘대로 되고\n걸어 써도 되니까 편해요\n~']</t>
+          <t>['생각보다 엄청 빠르게 와서 좋습니다! 작은 방에 놓고 에어컨이랑 함께 쓰려고 하는데 소리도 작고 바람 세기도 적당해서 좋네요 ㅎㅎ 특히 무선이라 바깥에 나갈 때도 쓸 수 있어서 더\n생각보다 엄청 빠르게 와서 좋습니다! 작은 방에 놓고 에어컨이랑 함께 쓰려고 하는데 소리도 작고 바람 세기도 적당해서 좋네요 ㅎㅎ 특히 무선이라 바깥에 나갈 때도 쓸 수 있어서 더욱 좋은 것 같습니다! :)']</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>99.75587725639343</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="31">
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>99.68751072883606</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="32">
@@ -845,7 +845,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>98.83697032928467</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="33">
@@ -858,7 +858,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>99.85341429710388</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="34">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>99.30546879768372</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="35">
@@ -884,7 +884,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>99.9996542930603</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="36">
@@ -897,7 +897,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>99.93639588356018</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="37">
@@ -910,7 +910,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>95.39088010787964</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="38">
@@ -923,7 +923,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>66.69399738311768</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="39">
@@ -936,7 +936,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>99.99867677688599</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="40">
@@ -949,7 +949,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>99.49749112129211</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="41">
@@ -962,7 +962,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>99.83956813812256</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="42">
@@ -975,7 +975,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>99.96674060821533</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="43">
@@ -988,7 +988,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>99.93093609809875</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="44">
@@ -1001,7 +1001,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>99.78805184364319</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="45">
@@ -1014,7 +1014,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>81.57464861869812</v>
+        <v>4</v>
       </c>
     </row>
     <row r="46">
@@ -1027,7 +1027,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>99.73859190940857</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="47">
@@ -1036,11 +1036,11 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>['크기도 적당하고 꽤 조용합니다. 책상위에 올려놓고 쓰기도 딱 좋구요. 제가 더위를 잘타서 골랐는데 너무 만족합니다. 검은색이 있었으면 더 좋았을거 같아요</t>
+          <t>['크기도 적당하고 꽤 조용합니다. 책상위에 올려놓고 쓰기도 딱 좋구요. 제가 더위를 잘타서 골랐는데 너무 만족합니다. 검은색이 있었으면 더 좋았을거 같아요.\n크기도 적당하고 꽤 조용합니다. 책상위에 올려놓고 쓰기도 딱 좋구요. 제가 더위를 잘타서 골랐는데 너무 만족합니다. 검은색이 있었으면 더 좋았을거 같아요.']</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>99.81982707977295</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="48">
@@ -1049,11 +1049,11 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>['8단선풍기인데 1단도 아주약하지 않아서 소리가 생각보다 좀 나네요. 이것 외에는 다 좋아요.\n8단선풍기인데 1단도 아주약하지 않아서 소리가 생각보다 좀 나네요. 이것 외에는 다 좋아요.']</t>
+          <t>['만족해요 다만 코드가 밑에 꼽게되어있어서 유무선 사용시 들고 꼽아야하는 단점이 있어요. 코드선이 측면에 있다면 더 좋았을듯 합니다\n만족해요 다만 코드가 밑에 꼽게되어있어서 유무선 사용시 들고 꼽아야하는 단점이 있어요. 코드선이 측면에 있다면 더 좋았을듯 합니다']</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>58.30142498016357</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="49">
@@ -1062,11 +1062,11 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>['만족해요 다만 코드가 밑에 꼽게되어있어서 유무선 사용시 들고 꼽아야하는 단점이 있어요. 코드선이 측면에 있다면 더 좋았을듯 합니다\n만족해요 다만 코드가 밑에 꼽게되어있어서 유무선 사용시 들고 꼽아야하는 단점이 있어요. 코드선이 측면에 있다면 더 좋았을듯 합니다']</t>
+          <t>['휴대도 가능하고 평상시에도 가능한만족스러운 선풍기네요 비싸다고 생각할 수 있으나 가격대비 좋은 제품입니다~\n휴대도 가능하고 평상시에도 가능한\n만족스러운 선풍기네요\n비싸다고 생각할 수 있으나 가격대비 좋은 제품입니다~']</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>99.53644871711731</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="50">
@@ -1079,7 +1079,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>99.38993453979492</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="51">
@@ -1092,7 +1092,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>97.26078510284424</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="52">
@@ -1105,7 +1105,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>99.98056292533875</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="53">
@@ -1118,7 +1118,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>99.79844093322754</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="54">
@@ -1131,7 +1131,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>99.8867928981781</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="55">
@@ -1140,11 +1140,11 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>['상품 자체 매우만족하고쓰고있습니다 10만원이상 선풍기 살면서 처음써봤는데 굿!\n상품 자체 매우만족하고쓰고있습니다 10만원이상 선풍기 살면서 처음써봤는데 굿!']</t>
+          <t>['1단이 예상보다 바람이 세서 별하나 뺐어요아기용은 아닌듯 수납하기에 좋습니다\n1단이 예상보다 바람이 세서 별하나 뺐어요\n아기용은 아닌듯 수납하기에 좋습니다']</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>99.62775111198425</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="56">
@@ -1153,11 +1153,11 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>['아이와 함께 자는 침실 선풍기를 알아보다가 준비했어요~자연의 바람과 함께 디테일 하나하나 고급스러워서 아주 대만족이에요!\n아이와 함께 자는 침실 선풍기를 알아보다가 준비했어요~\n자연의 바람과 함께 디테일 하나하나 고급스러워서 아주 대만족이에요!']</t>
+          <t>['상품 자체 매우만족하고쓰고있습니다 10만원이상 선풍기 살면서 처음써봤는데 굿!\n상품 자체 매우만족하고쓰고있습니다 10만원이상 선풍기 살면서 처음써봤는데 굿!']</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>99.93890523910522</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="57">
@@ -1166,11 +1166,11 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>['완전 예쁘고 깔끔하고 시원하고 다해요더위를 많이 타서 손풍기용으로 들고다니려고 했는데 솔직히 그건 힘들겠어요 ㅋㅋ 캠핑갈때 잘 쓰이겠어요 추천해요\n완전 예쁘고 깔끔하고 시원하고 다해요\n더위를 많이 타서 손풍기용으로 들고다니려고 했는데 솔직히 그건 힘들겠어요 ㅋㅋ 캠핑갈때 잘 쓰이겠어요 추천해요']</t>
+          <t>['아이와 함께 자는 침실 선풍기를 알아보다가 준비했어요~자연의 바람과 함께 디테일 하나하나 고급스러워서 아주 대만족이에요!\n아이와 함께 자는 침실 선풍기를 알아보다가 준비했어요~\n자연의 바람과 함께 디테일 하나하나 고급스러워서 아주 대만족이에요!']</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>99.9104380607605</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="58">
@@ -1179,11 +1179,11 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>['바람세기는 강한편인데 크기가 많이 작네요..아기 선풍기 글자를 못보고;;;;;;;;;\n바람세기는 강한편인데 크기가 많이 작네요..아기 선풍기 글자를 못보고;;;;;;;;;']</t>
+          <t>['완전 예쁘고 깔끔하고 시원하고 다해요더위를 많이 타서 손풍기용으로 들고다니려고 했는데 솔직히 그건 힘들겠어요 ㅋㅋ 캠핑갈때 잘 쓰이겠어요 추천해요\n완전 예쁘고 깔끔하고 시원하고 다해요\n더위를 많이 타서 손풍기용으로 들고다니려고 했는데 솔직히 그건 힘들겠어요 ㅋㅋ 캠핑갈때 잘 쓰이겠어요 추천해요']</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>61.66160106658936</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="59">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>99.45405125617981</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="60">
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>88.37225437164307</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="61">
@@ -1218,11 +1218,11 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>['가볍고 아담해서 집안에서도 집밖에서도 사용하기 좋아요캠핑용으로 쓸 때도 높이 조절이 돼서 다른 캠핑 선풍기보다 활용도가 높을 것 같아서 하나 있으면 두루두루 잘 쓸 것 같아요\n가볍고 아담해서 집안에서도 집밖에서도 사용하기 좋아요\n캠핑용으로 쓸 때도 높이 조절이 돼서 다른 캠핑 선풍기보다 활용도가 높을 것 같아서 하나 있으면 두루두루 잘 쓸 것 같아요']</t>
+          <t>['사이즈는 아담해도 바람은 그렇게 안시끄러윤데 세서 좋아요. 잘쓰겠급니다!\n사이즈는 아담해도 바람은 그렇게 안시끄러윤데 세서 좋아요. 잘쓰겠급니다!']</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>99.94010329246521</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="62">
@@ -1231,11 +1231,11 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>['가볍고 이동성 좋아요다만 리모컨 거치대가 없어 약 간 불편해요\n가볍고 이동성 좋아요\n다만 리모컨 거치대가 없어 약 간 불편해요']</t>
+          <t>['가볍고 아담해서 집안에서도 집밖에서도 사용하기 좋아요캠핑용으로 쓸 때도 높이 조절이 돼서 다른 캠핑 선풍기보다 활용도가 높을 것 같아서 하나 있으면 두루두루 잘 쓸 것 같아요\n가볍고 아담해서 집안에서도 집밖에서도 사용하기 좋아요\n캠핑용으로 쓸 때도 높이 조절이 돼서 다른 캠핑 선풍기보다 활용도가 높을 것 같아서 하나 있으면 두루두루 잘 쓸 것 같아요']</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>88.54635953903198</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="63">
@@ -1244,11 +1244,11 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>['소음도 적고, 접이식이라 보관하기 편하고, 디자인도 작고 이쁨 강추\n소음도 적고, 접이식이라 보관하기 편하고, 디자인도 작고 이쁨 강추']</t>
+          <t>['쓰던거보고 친구가 탐내서 하나더샀어요설거지할때 요긴하게 씁니다ㅎ\n쓰던거보고 친구가 탐내서 하나더샀어요\n설거지할때 요긴하게 씁니다ㅎ']</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>99.95827078819275</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="64">
@@ -1257,11 +1257,11 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>['여러제품 비교하다가 구매했습니다.높낮이조절,배터리양 표시,리모컨조절,무선제가 생각했던 모든 기능이 다 있습니다.작고 귀엽네요!\n여러제품 비교하다가 구매했습니다.\n높낮이조절,배터리양 표시,리모컨조절,무선\n제가 생각했던 모든 기능이 다 있습니다.\n작고 귀엽네요!']</t>
+          <t>['가볍고 이동성 좋아요다만 리모컨 거치대가 없어 약 간 불편해요\n가볍고 이동성 좋아요\n다만 리모컨 거치대가 없어 약 간 불편해요']</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>97.74217009544373</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="65">
@@ -1270,11 +1270,11 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>['고르고 골라 모든 기능의 집결체팬이 생각보다 작지만 만족합니다!!\n고르고 골라 모든 기능의 집결체\n팬이 생각보다 작지만 만족합니다!!']</t>
+          <t>['소음도 적고, 접이식이라 보관하기 편하고, 디자인도 작고 이쁨 강추\n소음도 적고, 접이식이라 보관하기 편하고, 디자인도 작고 이쁨 강추']</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>97.7726936340332</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="66">
@@ -1283,11 +1283,11 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>['작지만 성능 좋구요 소음 만족,일단 부피가 작고 보관하기 좋아요\n작지만 성능 좋구요 소음 만족,일단 부피가 작고 보관하기 좋아요']</t>
+          <t>['여러제품 비교하다가 구매했습니다.높낮이조절,배터리양 표시,리모컨조절,무선제가 생각했던 모든 기능이 다 있습니다.작고 귀엽네요!\n여러제품 비교하다가 구매했습니다.\n높낮이조절,배터리양 표시,리모컨조절,무선\n제가 생각했던 모든 기능이 다 있습니다.\n작고 귀엽네요!']</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>99.6276319026947</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="67">
@@ -1296,11 +1296,11 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>['디자인 좋고 리모컨이 본체에 자석으로 붙어서 너무 편리하네요^^\n디자인 좋고 리모컨이 본체에 자석으로 붙어서 너무 편리하네요^^']</t>
+          <t>['고르고 골라 모든 기능의 집결체팬이 생각보다 작지만 만족합니다!!\n고르고 골라 모든 기능의 집결체\n팬이 생각보다 작지만 만족합니다!!']</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>99.86898899078369</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="68">
@@ -1309,11 +1309,11 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>['무선이라 정말 편하네요ㅡ더군다나 보관방법이 획기적입니다^^\n무선이라 정말 편하네요ㅡ\n더군다나 보관방법이 획기적입니다^^']</t>
+          <t>['작지만 성능 좋구요 소음 만족,일단 부피가 작고 보관하기 좋아요\n작지만 성능 좋구요 소음 만족,일단 부피가 작고 보관하기 좋아요']</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>96.87216281890869</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="69">
@@ -1322,11 +1322,11 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>['실제 받아보고 나니 일반 선풍기 보다 사이즈는 작습니다. 다만 너무 이뻐요. 정말 이뻐요. 아! 그리고 선풍기 회전할때 날개부분이 돌아가는게 아닌 몸통 전체가 회전해요 ㅋㅋㅋ\n실제 받아보고 나니 일반 선풍기 보다 사이즈는 작습니다. 다만 너무 이뻐요. 정말 이뻐요. 아! 그리고 선풍기 회전할때 날개부분이 돌아가는게 아닌 몸통 전체가 회전해요 ㅋㅋㅋ']</t>
+          <t>['디자인 좋고 리모컨이 본체에 자석으로 붙어서 너무 편리하네요^^\n디자인 좋고 리모컨이 본체에 자석으로 붙어서 너무 편리하네요^^']</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>90.00675678253174</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="70">
@@ -1335,11 +1335,11 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>['무선이라 편하게 들고 필요한곳에서 쓸 수 있어서 너무 좋아요 무선 선풍기 처음인데 신세계네요\n무선이라 편하게 들고 필요한곳에서 쓸 수 있어서 너무 좋아요 무선 선풍기 처음인데 신세계네요']</t>
+          <t>['무선이라 정말 편하네요ㅡ더군다나 보관방법이 획기적입니다^^\n무선이라 정말 편하네요ㅡ\n더군다나 보관방법이 획기적입니다^^']</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>99.74663257598877</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="71">
@@ -1348,11 +1348,11 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>['선풍기 조금 작긴한데 조용해서 좋네요 휴대가능하고 이뻐요\n선풍기 조금 작긴한데 조용해서 좋네요 휴대가능하고 이뻐요']</t>
+          <t>['실제 받아보고 나니 일반 선풍기 보다 사이즈는 작습니다. 다만 너무 이뻐요. 정말 이뻐요. 아! 그리고 선풍기 회전할때 날개부분이 돌아가는게 아닌 몸통 전체가 회전해요 ㅋㅋㅋ\n실제 받아보고 나니 일반 선풍기 보다 사이즈는 작습니다. 다만 너무 이뻐요. 정말 이뻐요. 아! 그리고 선풍기 회전할때 날개부분이 돌아가는게 아닌 몸통 전체가 회전해요 ㅋㅋㅋ']</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>99.29955005645752</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="72">
@@ -1361,11 +1361,11 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>['작고 무선이고 너무 디자인도 좋네요캠핑갈때도 딱이겠어요!!\n작고 무선이고 너무 디자인도 좋네요\n캠핑갈때도 딱이겠어요!!']</t>
+          <t>['무선이라 편하게 들고 필요한곳에서 쓸 수 있어서 너무 좋아요 무선 선풍기 처음인데 신세계네요\n무선이라 편하게 들고 필요한곳에서 쓸 수 있어서 너무 좋아요 무선 선풍기 처음인데 신세계네요']</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>99.28373098373413</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="73">
@@ -1374,11 +1374,11 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>['일단 휴대도 간편하고 바람도 세서 좋아요. 아주 만족합니다\n일단 휴대도 간편하고 바람도 세서 좋아요. 아주 만족합니다']</t>
+          <t>['선풍기 조금 작긴한데 조용해서 좋네요 휴대가능하고 이뻐요\n선풍기 조금 작긴한데 조용해서 좋네요 휴대가능하고 이뻐요']</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>99.82637763023376</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="74">
@@ -1387,11 +1387,11 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>['이쁘고 가볍고 무선되고 조용하고 모든 게 다 좋은거같아요!\n이쁘고 가볍고 무선되고 조용하고 모든 게 다 좋은거같아요!']</t>
+          <t>['작고 무선이고 너무 디자인도 좋네요캠핑갈때도 딱이겠어요!!\n작고 무선이고 너무 디자인도 좋네요\n캠핑갈때도 딱이겠어요!!']</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>99.35857057571411</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="75">
@@ -1400,11 +1400,11 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>['생각보다 작은데 시원하고 간편하고~회전으로 해놔도 시원해요ㅎㅎ고민끝에 주문했는데 100프로 만족합니다\n생각보다 작은데 시원하고 간편하고~\n회전으로 해놔도 시원해요ㅎㅎ고민끝에 주문했는데 100프로 만족합니다']</t>
+          <t>['일단 휴대도 간편하고 바람도 세서 좋아요. 아주 만족합니다\n일단 휴대도 간편하고 바람도 세서 좋아요. 아주 만족합니다']</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>99.99024271965027</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="76">
@@ -1413,11 +1413,11 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>['가정용으로는 조금 작지만 아이 방에 놓긴 괜찮아요바람도 쌔고 좋네요 사은품도 너무 조아요\n가정용으로는 조금 작지만 아이 방에 놓긴 괜찮아요\n바람도 쌔고 좋네요 사은품도 너무 조아요']</t>
+          <t>['이쁘고 가볍고 무선되고 조용하고 모든 게 다 좋은거같아요!\n이쁘고 가볍고 무선되고 조용하고 모든 게 다 좋은거같아요!']</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>99.58345293998718</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="77">
@@ -1426,11 +1426,11 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>['접히는것 편리하고 무선이라 좋고 바람세기도 적당합니다!\n접히는것 편리하고 무선이라 좋고 바람세기도 적당합니다!']</t>
+          <t>['생각보다 작은데 시원하고 간편하고~회전으로 해놔도 시원해요ㅎㅎ고민끝에 주문했는데 100프로 만족합니다\n생각보다 작은데 시원하고 간편하고~\n회전으로 해놔도 시원해요ㅎㅎ고민끝에 주문했는데 100프로 만족합니다']</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>99.6824324131012</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="78">
@@ -1439,11 +1439,11 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>['아주 편리하게 사용합니다.그런데 약간 소음이 크긴해요.\n아주 편리하게 사용합니다.\n그런데 약간 소음이 크긴해요.']</t>
+          <t>['가정용으로는 조금 작지만 아이 방에 놓긴 괜찮아요바람도 쌔고 좋네요 사은품도 너무 조아요\n가정용으로는 조금 작지만 아이 방에 놓긴 괜찮아요\n바람도 쌔고 좋네요 사은품도 너무 조아요']</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>99.53221082687378</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="79">
@@ -1452,11 +1452,11 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>['슬림하지만 시원해요\n팬의 크기가 작아 시원하지 않을까 걱정했는데 8단계까지라 풍량 조절도 잘되고 시원하네요. 무선형에 리모컨까지 강추합니다.']</t>
+          <t>['접히는것 편리하고 무선이라 좋고 바람세기도 적당합니다!\n접히는것 편리하고 무선이라 좋고 바람세기도 적당합니다!']</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>99.15186762809753</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="80">
@@ -1465,11 +1465,11 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>['보관하기에도 아주 간편하고 컴팩트한 사이즈만 바람은 왠만한 사이즈의 선풍기와 견주어봐도 밀리지 않아요~!\n보관하기에도 아주 간편하고 컴팩트한 사이즈만 바람은 왠만한 사이즈의 선풍기와 견주어봐도 밀리지 않아요~!']</t>
+          <t>['아주 편리하게 사용합니다.그런데 약간 소음이 크긴해요.\n아주 편리하게 사용합니다.\n그런데 약간 소음이 크긴해요.']</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>99.99606013298035</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="81">
@@ -1478,11 +1478,11 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>['귀엽고 앙증맞고, 휴대성이 좋아 휴가갈때 같이 갑니다~\n귀엽고 앙증맞고, 휴대성이 좋아 휴가갈때 같이 갑니다~']</t>
+          <t>['슬림하지만 시원해요\n팬의 크기가 작아 시원하지 않을까 걱정했는데 8단계까지라 풍량 조절도 잘되고 시원하네요. 무선형에 리모컨까지 강추합니다.']</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>99.77227449417114</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="82">
@@ -1491,11 +1491,11 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>['침대에서 사용하기에 낮게 높이 조절 되는게 좋습니다.\n침대에서 사용하기에 낮게 높이 조절 되는게 좋습니다.']</t>
+          <t>['보관하기에도 아주 간편하고 컴팩트한 사이즈만 바람은 왠만한 사이즈의 선풍기와 견주어봐도 밀리지 않아요~!\n보관하기에도 아주 간편하고 컴팩트한 사이즈만 바람은 왠만한 사이즈의 선풍기와 견주어봐도 밀리지 않아요~!']</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>98.48484396934509</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="83">
@@ -1504,11 +1504,11 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>['빠른배송 잘 받았습니다. 제품도 이상없이 작동하네요!\n빠른배송 잘 받았습니다. 제품도 이상없이 작동하네요!']</t>
+          <t>['귀엽고 앙증맞고, 휴대성이 좋아 휴가갈때 같이 갑니다~\n귀엽고 앙증맞고, 휴대성이 좋아 휴가갈때 같이 갑니다~']</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>94.04475688934326</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="84">
@@ -1517,11 +1517,11 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>['접이식이라 편리하고 무선이라 좋아요~ 원룸에서 사용하려고 구매했는데 작고 귀엽네요~\n접이식이라 편리하고 무선이라 좋아요~ 원룸에서 사용하려고 구매했는데 작고 귀엽네요~']</t>
+          <t>['가벼워서 좋고 , 접어서 보관할때도 좋겠고맘에 들어요\n가벼워서 좋고 , 접어서 보관할때도 좋겠고\n맘에 들어요']</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>99.91965293884277</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="85">
@@ -1530,11 +1530,11 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>['캠핑가서 너무 잘쓰고 집에서도 매일 쓰는 중이에요!\n캠핑가서 너무 잘쓰고\n집에서도 매일 쓰는 중이에요!']</t>
+          <t>['침대에서 사용하기에 낮게 높이 조절 되는게 좋습니다.\n침대에서 사용하기에 낮게 높이 조절 되는게 좋습니다.']</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>99.957275390625</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="86">
@@ -1543,11 +1543,11 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>['무선이라 휴대성도 좋고 풍량도 8단으로 시원하네요.\n무선이라 휴대성도 좋고 풍량도 8단으로 시원하네요.']</t>
+          <t>['빠른배송 잘 받았습니다. 제품도 이상없이 작동하네요!\n빠른배송 잘 받았습니다. 제품도 이상없이 작동하네요!']</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>99.76963400840759</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="87">
@@ -1556,11 +1556,11 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>['주방용으로 구입\n음식할때 더워서 무선.접이식으로 구매 시원합니다']</t>
+          <t>['접이식이라 편리하고 무선이라 좋아요~ 원룸에서 사용하려고 구매했는데 작고 귀엽네요~\n접이식이라 편리하고 무선이라 좋아요~ 원룸에서 사용하려고 구매했는데 작고 귀엽네요~']</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>99.86029863357544</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="88">
@@ -1569,11 +1569,11 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>['가볍고 좋네요 아이가 들고다니면서\n가볍고 좋네요 아이가 들고다니면서 쓰고 있어요']</t>
+          <t>['캠핑가서 너무 잘쓰고 집에서도 매일 쓰는 중이에요!\n캠핑가서 너무 잘쓰고\n집에서도 매일 쓰는 중이에요!']</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>98.92880916595459</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="89">
@@ -1582,11 +1582,11 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>['생각보다 충전이 오래가서 좋고 편리합니다!!\n생각보다 충전이 오래가서 좋고 편리합니다!!']</t>
+          <t>['무선이라 휴대성도 좋고 풍량도 8단으로 시원하네요.\n무선이라 휴대성도 좋고 풍량도 8단으로 시원하네요.']</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>99.73222613334656</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="90">
@@ -1595,11 +1595,11 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>['좋습니다. 튼튼하고 성능좋고 너무 편해요\n좋습니다. 튼튼하고 성능좋고 너무 편해요']</t>
+          <t>['주방용으로 구입\n음식할때 더워서 무선.접이식으로 구매 시원합니다']</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>99.87984895706177</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="91">
@@ -1608,11 +1608,11 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>['포장부터 상품성까지 모두 마음에 들어요\n포장부터 상품성까지 모두 마음에 들어요']</t>
+          <t>['가볍고 좋네요 아이가 들고다니면서\n가볍고 좋네요 아이가 들고다니면서 쓰고 있어요']</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>97.67968058586121</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="92">
@@ -1621,11 +1621,11 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>['전선이 없고 이동이 자유로워 너무좋네요\n전선이 없고 이동이 자유로워 너무좋네요']</t>
+          <t>['작지만 결코 성능과 쓰임새는 작지않습니다 충전식 으로 이동이 간편해서 아주 유용하게 여름을 날듯합니다\n작지만 결코 성능과 쓰임새는 작지않습니다 충전식 으로 이동이 간편해서 아주 유용하게 여름을 날듯합니다']</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>92.88630485534668</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="93">
@@ -1634,11 +1634,11 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>['가볍고 무선으로 쓸 수 있어서 좋습니다\n가볍고 무선으로 쓸 수 있어서 좋습니다']</t>
+          <t>['배송이 빨라요충전기 연결하면 바람이 세져요.\n배송이 빨라요\n충전기 연결하면 바람이 세져요.']</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>98.85651469230652</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="94">
@@ -1647,11 +1647,11 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>['가볍고 보관도 용이하고 마음에 듭니다.\n가볍고 보관도 용이하고 마음에 듭니다.']</t>
+          <t>['생각보다 충전이 오래가서 좋고 편리합니다!!\n생각보다 충전이 오래가서 좋고 편리합니다!!']</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>99.96757507324219</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="95">
@@ -1660,11 +1660,11 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>['가볍고 바람세기도 딱 적당하고 좋아요\n가볍고 바람세기도 딱 적당하고 좋아요']</t>
+          <t>['좋습니다. 튼튼하고 성능좋고 너무 편해요\n좋습니다. 튼튼하고 성능좋고 너무 편해요']</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>98.68850111961365</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="96">
@@ -1673,11 +1673,11 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>['휴대하기 편리하고 성능도 좋습니다~!\n휴대하기 편리하고 성능도 좋습니다~!']</t>
+          <t>['포장부터 상품성까지 모두 마음에 들어요\n포장부터 상품성까지 모두 마음에 들어요']</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>99.97918009757996</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="97">
@@ -1686,11 +1686,11 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>['바람도세고수납이 간편해서 엄지척^^\n바람도세고수납이 간편해서 엄지척^^']</t>
+          <t>['전선이 없고 이동이 자유로워 너무좋네요\n전선이 없고 이동이 자유로워 너무좋네요']</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>99.49833750724792</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="98">
@@ -1699,11 +1699,11 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>['잘돌아가네요 접히는것도 좋습니다\n잘돌아가네요 접히는것도 좋습니다']</t>
+          <t>['배송빠르고 디자인 이쁘네요 시원합니다\n배송빠르고 디자인 이쁘네요 시원합니다']</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>95.15030384063721</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="99">
@@ -1712,11 +1712,11 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>['배송도 빠르고 저렴하게 잘삿어요\n배송도 빠르고 저렴하게 잘삿어요']</t>
+          <t>['가볍고 무선으로 쓸 수 있어서 좋습니다\n가볍고 무선으로 쓸 수 있어서 좋습니다']</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>99.88758563995361</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="100">
@@ -1725,11 +1725,11 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>['배송도빠르고 상품도 만족합니다\n배송도빠르고 상품도 만족합니다']</t>
+          <t>['가볍고 보관도 용이하고 마음에 듭니다.\n가볍고 보관도 용이하고 마음에 듭니다.']</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>97.53391742706299</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="101">
@@ -1738,11 +1738,11 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>['생각보다 귀여워요 고장 안나길..\n생각보다 귀여워요 고장 안나길..']</t>
+          <t>['가볍고 시원하고 생각보다 바람이 세서 놀랐어요!취침때문에 1단이 생각보다 세서 고민했는데무선일때 제가 원한 바람세기로 약해져서 고민이 없어졌어요^^!잘 쓸게요~\n가볍고 시원하고 생각보다 바람이 세서 놀랐어요!\n취침때문에 1단이 생각보다 세서 고민했는데\n무선일때 제가 원한 바람세기로 약해져서 고민이 없어졌어요^^!\n잘 쓸게요~']</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>95.23833990097046</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="102">
@@ -1751,11 +1751,11 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>['가격 대비 성능이 너무 좋아요\n가격 대비 성능이 너무 좋아요']</t>
+          <t>['가볍고 바람세기도 딱 적당하고 좋아요\n가볍고 바람세기도 딱 적당하고 좋아요']</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>99.23385977745056</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="103">
@@ -1764,11 +1764,11 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>['작지만 강하고 소음 진짜적음\n작지만 강하고 소음 진짜적음']</t>
+          <t>['사용하기 편리합니다 무선이라 좋아요\n사용하기 편리합니다 무선이라 좋아요']</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>73.24236035346985</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="104">
@@ -1777,11 +1777,11 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>['쓸수록 잘샀다고 생각합니다\n쓸수록 잘샀다고 생각합니다']</t>
+          <t>['휴대하기 편리하고 성능도 좋습니다~!\n휴대하기 편리하고 성능도 좋습니다~!']</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>94.15245652198792</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="105">
@@ -1790,11 +1790,11 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>['휴대하기 편하고 시원합니다\n휴대하기 편하고 시원합니다']</t>
+          <t>['바람도세고수납이 간편해서 엄지척^^\n바람도세고수납이 간편해서 엄지척^^']</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>99.78276491165161</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="106">
@@ -1803,11 +1803,11 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>['선이 좀 짧긴 하지만 좋아요\n선이 좀 짧긴 하지만 좋아요']</t>
+          <t>['잘돌아가네요 접히는것도 좋습니다\n잘돌아가네요 접히는것도 좋습니다']</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>97.63492941856384</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="107">
@@ -1816,11 +1816,11 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>['간편하게 이동하기 좋아요\n간편하게 이동하기 좋아요']</t>
+          <t>['배송도 빠르고 저렴하게 잘삿어요\n배송도 빠르고 저렴하게 잘삿어요']</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>99.95661377906799</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="108">
@@ -1829,11 +1829,11 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>['만족하는편 나쁘지 않음\n만족하는편 나쁘지 않음']</t>
+          <t>['배송도빠르고 상품도 만족합니다\n배송도빠르고 상품도 만족합니다']</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>97.07276821136475</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="109">
@@ -1842,11 +1842,11 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>['작고 시원하고 이뻐요!!\n작고 시원하고 이뻐요!!']</t>
+          <t>['생각보다 귀여워요 고장 안나길..\n생각보다 귀여워요 고장 안나길..']</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>97.17187285423279</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="110">
@@ -1855,11 +1855,11 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>['상품 퀼리티 좋습니다^^\n상품 퀼리티 좋습니다^^']</t>
+          <t>['가격 대비 성능이 너무 좋아요\n가격 대비 성능이 너무 좋아요']</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>51.54598951339722</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="111">
@@ -1868,11 +1868,11 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>['휴대성좋고 조용합니다\n휴대성좋고 조용합니다']</t>
+          <t>['휴대용이 진짜 좋은거 같아요\n휴대용이 진짜 좋은거 같아요']</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>98.89234304428101</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="112">
@@ -1881,11 +1881,11 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>['다음에 또 구매할게요\n다음에 또 구매할게요']</t>
+          <t>['작지만 강하고 소음 진짜적음\n작지만 강하고 소음 진짜적음']</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>97.35393524169922</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="113">
@@ -1894,11 +1894,11 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>['잘쓰겠습니다 좋아이\n잘쓰겠습니다 좋아이']</t>
+          <t>['쓸수록 잘샀다고 생각합니다\n쓸수록 잘샀다고 생각합니다']</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>98.79509210586548</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="114">
@@ -1907,11 +1907,11 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>['작고 안방에서 사용하기 좋은데 소음이 작지는 않아밤이나 새벽에 작동 시 소음이 걸리네요...\n작고 안방에서 사용하기 좋은데 소음이 작지는 않아\n밤이나 새벽에 작동 시 소음이 걸리네요...']</t>
+          <t>['휴대하기 편하고 시원합니다\n휴대하기 편하고 시원합니다']</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>98.6530065536499</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="115">
@@ -1920,11 +1920,11 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>['사이즈가 작은 편이고 작고 귀엽습니다보관도 용이하고 너무 간편해서 좋습니다\n사이즈가 작은 편이고 작고 귀엽습니다\n보관도 용이하고 너무 간편해서 좋습니다']</t>
+          <t>['쉽게 옮길 수 있어서 좋아요\n쉽게 옮길 수 있어서 좋아요']</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>99.99454617500305</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="116">
@@ -1933,11 +1933,11 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>['배송도빠르고 제품도 너무좋네요. 귀여운 미니 휴대용 선풍기도 감사합니다^^\n배송도빠르고 제품도 너무좋네요. 귀여운 미니 휴대용 선풍기도 감사합니다^^']</t>
+          <t>['선이 좀 짧긴 하지만 좋아요\n선이 좀 짧긴 하지만 좋아요']</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>99.94586706161499</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="117">
@@ -1946,11 +1946,11 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>['아주 잘 사용하고 있써요 편하고 일할때 옮겨 사하기 정말 편하네요\n아주 잘 사용하고 있써요 편하고 일할때 옮겨 사하기 정말 편하네요']</t>
+          <t>['이동편리한게 제일 좋아요~\n이동편리한게 제일 좋아요~']</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>99.56976771354675</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="118">
@@ -1959,11 +1959,11 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>['배송이 엄청 빨라서 좋고,사은품도 땡큐.\n배송이 엄청 빨라서 좋고,사은품도 땡큐.']</t>
+          <t>['간편하게 이동하기 좋아요\n간편하게 이동하기 좋아요']</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>99.69149231910706</v>
+        <v>4.9</v>
       </c>
     </row>
     <row r="119">
@@ -1972,11 +1972,11 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>['빠르고 안전한 배송에 감사합니다.\n빠르고 안전한 배송에 감사합니다.']</t>
+          <t>['r만족하는데 너무 작아요!\nr만족하는데 너무 작아요!']</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>99.78360533714294</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="120">
@@ -1985,11 +1985,11 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>['넘 좋아용 시원시온 짱짱 ㅎㅎㅎ!\n넘 좋아용 시원시온 짱짱 ㅎㅎㅎ!']</t>
+          <t>['만족하는편 나쁘지 않음\n만족하는편 나쁘지 않음']</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>99.99001622200012</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="121">
@@ -1998,11 +1998,11 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>['휴대성 좋고 무선이라 집에서도 야외에서도 이동이 간편해서 좋아요.집에서도 캠핑가서도 두고두고 잘 쓸 수 있을 것 같아요.\n휴대성 좋고 무선이라 집에서도 야외에서도 이동이 간편해서 좋아요.\n집에서도 캠핑가서도 두고두고 잘 쓸 수 있을 것 같아요.']</t>
+          <t>['작고 시원하고 이뻐요!!\n작고 시원하고 이뻐요!!']</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>99.99654293060303</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="122">
@@ -2011,11 +2011,271 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
+          <t>['배송빠르고 상품좋아요\n배송빠르고 상품좋아요']</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>['휴대성좋고 조용합니다\n휴대성좋고 조용합니다']</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>4.9</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>['배송 빠르고 좋아요~~~~\n배송 빠르고 좋아요~~~~']</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>['다음에 또 구매할게요\n다음에 또 구매할게요']</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>['매번쓰는제품이에요!!\n매번쓰는제품이에요!!']</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>4.9</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>['잘쓰겠습니다 좋아이\n잘쓰겠습니다 좋아이']</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>4.9</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>['작고 안방에서 사용하기 좋은데 소음이 작지는 않아밤이나 새벽에 작동 시 소음이 걸리네요...\n작고 안방에서 사용하기 좋은데 소음이 작지는 않아\n밤이나 새벽에 작동 시 소음이 걸리네요...']</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>4.9</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>['편하고 괜찮네요.\n편하고 괜찮네요.']</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>4.6</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>['예쁘고 가벼워요~~\n예쁘고 가벼워요~~']</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>['가격이 좀 나간다 생각했는데 그만큼 좋네요. 소음은 신경쓸만큼은 아니고 디쟌, 스펙 다 좋네요. 잘 쓸게요\n가격이 좀 나간다 생각했는데 그만큼 좋네요. 소음은 신경쓸만큼은 아니고 디쟌, 스펙 다 좋네요. 잘 쓸게요']</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>['사이즈가 작은 편이고 작고 귀엽습니다보관도 용이하고 너무 간편해서 좋습니다\n사이즈가 작은 편이고 작고 귀엽습니다\n보관도 용이하고 너무 간편해서 좋습니다']</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>4.9</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>['배송도빠르고 제품도 너무좋네요. 귀여운 미니 휴대용 선풍기도 감사합니다^^\n배송도빠르고 제품도 너무좋네요. 귀여운 미니 휴대용 선풍기도 감사합니다^^']</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>4.9</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>['아주 잘 사용하고 있써요 편하고 일할때 옮겨 사하기 정말 편하네요\n아주 잘 사용하고 있써요 편하고 일할때 옮겨 사하기 정말 편하네요']</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>4.9</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>['배송이 엄청 빨라서 좋고,사은품도 땡큐.\n배송이 엄청 빨라서 좋고,사은품도 땡큐.']</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>4.9</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>['귀엽고 성능 좋네요 가성비 최고네요 :)\n귀엽고 성능 좋네요\n가성비 최고네요 :)']</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>4.9</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>['빠르고 안전한 배송에 감사합니다.\n빠르고 안전한 배송에 감사합니다.']</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>4.9</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>['빠른배송 감사합니다\n빠른배송 감사합니다']</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>['빠르게 잘 받았습니다.작동 잘 되네요 잘쓰겠습니다.\n빠르게 잘 받았습니다.\n작동 잘 되네요 잘쓰겠습니다.']</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>4.9</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>['넘 좋아용 시원시온 짱짱 ㅎㅎㅎ!\n넘 좋아용 시원시온 짱짱 ㅎㅎㅎ!']</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>4.9</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>['휴대성 좋고 무선이라 집에서도 야외에서도 이동이 간편해서 좋아요.집에서도 캠핑가서도 두고두고 잘 쓸 수 있을 것 같아요.\n휴대성 좋고 무선이라 집에서도 야외에서도 이동이 간편해서 좋아요.\n집에서도 캠핑가서도 두고두고 잘 쓸 수 있을 것 같아요.']</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>4.9</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
           <t>['캠핑용으로 샀어요무선으로도 이용가능하고충전하며 유선으로도 가능하다해서샀어요 좋아요 맘에 들어요^^\n캠핑용으로 샀어요\n무선으로도 이용가능하고\n충전하며 유선으로도 가능하다해서\n샀어요 좋아요 맘에 들어요^^']</t>
         </is>
       </c>
-      <c r="C122" t="n">
-        <v>99.98400807380676</v>
+      <c r="C142" t="n">
+        <v>4.9</v>
       </c>
     </row>
   </sheetData>
